--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -4,19 +4,74 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="9975" windowHeight="7590" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="9975" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown Chart 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Planning" sheetId="4" r:id="rId3"/>
+    <sheet name="Velocity" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>下がれば下がるほど良い</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ベロシティを測定していなかったので4.3で計算</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ベロシティを測定していなかったので4.3で計算</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1"/>
@@ -1271,16 +1326,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザがどのようにアプリを使っているかを知るために</t>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>利用ログをデータベースに保存できる</t>
     <rPh sb="0" eb="2">
       <t>リヨウ</t>
@@ -1305,30 +1350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>見積もり時間</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積もりポイント</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積もりVelocity</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実工数</t>
     <rPh sb="0" eb="3">
       <t>ジツコウスウ</t>
@@ -1336,41 +1357,127 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実ポイント</t>
+    <t>Sprint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprint4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザがどのようにアプリを使っているかを知るため</t>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差し引かれた雑工数の内訳</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウチワケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実ベロシティ(h/pt)</t>
     <rPh sb="0" eb="1">
       <t>ジツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実ベロシティ</t>
+    <t>見積もり時間(h)</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積もりポイント(pt)</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表資料作成 2P</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シリョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標ポイント(pt)</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実ポイント(pt)</t>
     <rPh sb="0" eb="1">
       <t>ジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sprint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>資料作成 2P</t>
-    <rPh sb="0" eb="4">
-      <t>シリョウサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雑工数</t>
-    <rPh sb="0" eb="2">
-      <t>ザッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1379,7 +1486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1440,6 +1547,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1503,7 +1618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1599,6 +1714,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1694,9 +1810,9 @@
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>'Burndown Chart 2'!$A$2:$A$5</c:f>
+              <c:f>'Burndown Chart 2'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -1709,15 +1825,18 @@
                 <c:pt idx="3">
                   <c:v>Sprint3</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint4</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Burndown Chart 2'!$B$2:$B$5</c:f>
+              <c:f>'Burndown Chart 2'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>28.5</c:v>
                 </c:pt>
@@ -1728,6 +1847,9 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1774,9 +1896,9 @@
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>'Burndown Chart 2'!$A$2:$A$5</c:f>
+              <c:f>'Burndown Chart 2'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -1789,20 +1911,26 @@
                 <c:pt idx="3">
                   <c:v>Sprint3</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint4</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Burndown Chart 2'!$C$2:$C$5</c:f>
+              <c:f>'Burndown Chart 2'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,11 +1946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-199158000"/>
-        <c:axId val="-199172688"/>
+        <c:axId val="131829928"/>
+        <c:axId val="131830320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-199158000"/>
+        <c:axId val="131829928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,12 +1979,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-199172688"/>
+        <c:crossAx val="131830320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-199172688"/>
+        <c:axId val="131830320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +2002,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>rest</a:t>
+                  <a:t>Rest</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
@@ -1891,7 +2019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-199158000"/>
+        <c:crossAx val="131829928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1913,20 +2041,854 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Velocity!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実ベロシティ(h/pt)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Velocity!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>2-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Velocity!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="335901568"/>
+        <c:axId val="335898824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="335901568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335898824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="335898824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335901568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1947,59 +2909,39 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="雲形吹き出し 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3057525" y="2647949"/>
-          <a:ext cx="1562100" cy="1362075"/>
-        </a:xfrm>
-        <a:prstGeom prst="cloudCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 125636"/>
-            <a:gd name="adj2" fmla="val -28673"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2294,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2358,8 +3300,8 @@
       <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="19">
-        <v>2</v>
+      <c r="C3" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="D3" s="18">
         <v>1</v>
@@ -2386,8 +3328,8 @@
       <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="19">
-        <v>2</v>
+      <c r="C4" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="D4" s="18">
         <v>1</v>
@@ -2414,8 +3356,8 @@
       <c r="B5" s="18">
         <v>4</v>
       </c>
-      <c r="C5" s="19">
-        <v>2</v>
+      <c r="C5" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
@@ -2442,8 +3384,8 @@
       <c r="B6" s="18">
         <v>5</v>
       </c>
-      <c r="C6" s="19">
-        <v>3</v>
+      <c r="C6" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
@@ -2470,8 +3412,8 @@
       <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="19">
-        <v>3</v>
+      <c r="C7" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
@@ -2498,8 +3440,8 @@
       <c r="B8" s="18">
         <v>2</v>
       </c>
-      <c r="C8" s="19">
-        <v>3</v>
+      <c r="C8" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -2526,8 +3468,8 @@
       <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="19">
-        <v>4</v>
+      <c r="C9" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
@@ -2554,8 +3496,8 @@
       <c r="B10" s="18">
         <v>8</v>
       </c>
-      <c r="C10" s="19">
-        <v>4</v>
+      <c r="C10" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -2582,7 +3524,9 @@
       <c r="B11" s="18">
         <v>2</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
@@ -2610,7 +3554,9 @@
       <c r="B12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>159</v>
+      </c>
       <c r="D12" s="18" t="s">
         <v>121</v>
       </c>
@@ -2638,7 +3584,9 @@
       <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="D13" s="18" t="s">
         <v>122</v>
       </c>
@@ -2988,13 +3936,13 @@
         <v>148</v>
       </c>
       <c r="F25" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="H25" s="31" t="s">
         <v>150</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>151</v>
       </c>
       <c r="I25" s="33"/>
     </row>
@@ -3009,13 +3957,13 @@
         <v>148</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I26" s="33"/>
     </row>
@@ -11772,7 +12720,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11823,16 +12771,29 @@
         <f>B3-SUMIF('Base User Story List'!C:C,"2-2",'Base User Story List'!B:B)</f>
         <v>11</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="11">
+        <f>C3-SUMIF('Base User Story List'!I:I,"2-2",'Base User Story List'!B:B)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B5" s="11">
+        <f>B4-SUMIF('Base User Story List'!C:C,"2-3",'Base User Story List'!B:B)</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="11">
         <v>0</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
@@ -11848,68 +12809,122 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="34" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>159</v>
+      <c r="A1" s="34" t="s">
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <f>B3/G2</f>
+        <v>16.744186046511629</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <f>B3/E3</f>
+        <v>6.5454545454545459</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>161</v>
+        <f>B4/G2</f>
+        <v>1.8604651162790697</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
       </c>
       <c r="E4">
-        <f>B4/C4</f>
-        <v>4.6428571428571432</v>
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <f>B4/E4</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <f>B5/G2</f>
+        <v>16.744186046511629</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="9975" windowHeight="7590"/>
@@ -11,7 +11,7 @@
     <sheet name="Burndown Chart 2" sheetId="3" r:id="rId2"/>
     <sheet name="Velocity" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,11 +32,11 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>下がれば下がるほど良い</t>
+          <t>測っていない</t>
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="176">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -1346,13 +1346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実工数</t>
-    <rPh sb="0" eb="3">
-      <t>ジツコウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sprint</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1430,13 +1423,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実ベロシティ(h/pt)</t>
-    <rPh sb="0" eb="1">
-      <t>ジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>見積もり時間(h)</t>
     <rPh sb="0" eb="2">
       <t>ミツ</t>
@@ -1479,6 +1465,35 @@
   </si>
   <si>
     <t>Priority</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実時間(h)</t>
+    <rPh sb="0" eb="3">
+      <t>ジツジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントあたりの時間(h/pt)</t>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実ベロシティ(pt/h)</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1967,6 +1982,9 @@
                 <c:pt idx="2">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1981,11 +1999,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334862728"/>
-        <c:axId val="334868216"/>
+        <c:axId val="131184896"/>
+        <c:axId val="132383104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334862728"/>
+        <c:axId val="131184896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,12 +2032,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334868216"/>
+        <c:crossAx val="132383104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334868216"/>
+        <c:axId val="132383104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,7 +2072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334862728"/>
+        <c:crossAx val="131184896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2132,11 +2150,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Velocity!$G$1</c:f>
+              <c:f>Velocity!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>実ベロシティ(h/pt)</c:v>
+                  <c:v>実ベロシティ(pt/h)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2167,9 +2185,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Velocity!$A$2:$A$5</c:f>
+              <c:f>Velocity!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
                   <c:v>2-1</c:v>
                 </c:pt>
@@ -2179,23 +2197,29 @@
                 <c:pt idx="3">
                   <c:v>2-3</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2-4</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Velocity!$G$2:$G$5</c:f>
+              <c:f>Velocity!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.3</c:v>
+                  <c:v>0.23255813953488372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5454545454545459</c:v>
+                  <c:v>0.15277777777777776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,11 +2236,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="334864296"/>
-        <c:axId val="334864688"/>
+        <c:axId val="132264704"/>
+        <c:axId val="132266624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="334864296"/>
+        <c:axId val="132264704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2283,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334864688"/>
+        <c:crossAx val="132266624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,7 +2291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334864688"/>
+        <c:axId val="132266624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2342,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334864296"/>
+        <c:crossAx val="132264704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2951,16 +2975,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2983,7 +3007,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3025,7 +3049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3060,7 +3084,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3271,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3298,7 +3322,7 @@
     </row>
     <row r="2" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>35</v>
@@ -3336,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="30">
         <v>1</v>
@@ -3364,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -3392,7 +3416,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
@@ -3420,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -3448,7 +3472,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -3476,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -3504,7 +3528,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -3532,7 +3556,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -3560,7 +3584,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
@@ -3590,7 +3614,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>120</v>
@@ -3620,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>121</v>
@@ -3823,88 +3847,94 @@
       <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+      <c r="A20" s="11">
         <v>13</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="11">
         <v>2</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="40"/>
+      <c r="I20" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
+      <c r="A21" s="11">
         <v>14</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="11">
         <v>2</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="40"/>
+      <c r="I21" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
+      <c r="A22" s="11">
         <v>15</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="11">
         <v>3</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="11">
         <v>2</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="40"/>
+      <c r="I22" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
@@ -3975,7 +4005,7 @@
         <v>147</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>148</v>
@@ -3997,7 +4027,7 @@
         <v>147</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>150</v>
@@ -12779,7 +12809,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12843,11 +12873,14 @@
         <f>B4-SUMIF('Base User Story List'!C:C,"2-3",'Base User Story List'!B:B)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <f>C4-SUMIF('Base User Story List'!I:I,"2-3",'Base User Story List'!B:B)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -12869,10 +12902,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12882,44 +12915,52 @@
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="9" max="9" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
         <v>168</v>
       </c>
-      <c r="D1" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G2">
         <v>4.3</v>
       </c>
+      <c r="H2">
+        <f>1/G2</f>
+        <v>0.23255813953488372</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3">
         <v>72</v>
@@ -12938,10 +12979,14 @@
         <f>B3/E3</f>
         <v>6.5454545454545459</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="0">1/G3</f>
+        <v>0.15277777777777776</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -12960,10 +13005,14 @@
         <f>B4/E4</f>
         <v>5.333333333333333</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>72</v>
@@ -12975,8 +13024,24 @@
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
-        <v>169</v>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <f>B5/E5</f>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="27" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="9975" windowHeight="7590"/>
@@ -11,7 +11,7 @@
     <sheet name="Burndown Chart 2" sheetId="3" r:id="rId2"/>
     <sheet name="Velocity" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="178">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -1284,10 +1284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Weｂアプリでもかまわない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2-3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1494,6 +1490,24 @@
   </si>
   <si>
     <t>2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出来ないとWeb DB不可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出来ないとWeb DB不可・Weｂアプリでやる</t>
+    <rPh sb="0" eb="2">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1501,7 +1515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1570,6 +1584,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1641,7 +1662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1763,6 +1784,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1999,11 +2023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131184896"/>
-        <c:axId val="132383104"/>
+        <c:axId val="272225960"/>
+        <c:axId val="272224784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131184896"/>
+        <c:axId val="272225960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,12 +2056,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132383104"/>
+        <c:crossAx val="272224784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132383104"/>
+        <c:axId val="272224784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131184896"/>
+        <c:crossAx val="272225960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2236,11 +2260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132264704"/>
-        <c:axId val="132266624"/>
+        <c:axId val="272225176"/>
+        <c:axId val="272220472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132264704"/>
+        <c:axId val="272225176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2307,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132266624"/>
+        <c:crossAx val="272220472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2291,7 +2315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132266624"/>
+        <c:axId val="272220472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2342,7 +2366,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132264704"/>
+        <c:crossAx val="272225176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3007,7 +3031,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3049,7 +3073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3084,7 +3108,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3295,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3310,7 +3334,7 @@
     <col min="7" max="7" width="44.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="6.25" style="7"/>
-    <col min="10" max="10" width="50.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="58.875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="6.25" style="3"/>
   </cols>
   <sheetData>
@@ -3322,7 +3346,7 @@
     </row>
     <row r="2" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>35</v>
@@ -3360,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="30">
         <v>1</v>
@@ -3388,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -3416,7 +3440,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
@@ -3444,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -3472,7 +3496,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -3500,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -3528,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -3556,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -3584,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
@@ -3614,7 +3638,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>120</v>
@@ -3644,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>121</v>
@@ -3756,60 +3780,60 @@
       </c>
       <c r="J16" s="43"/>
     </row>
-    <row r="17" spans="1:10" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
-        <v>10</v>
-      </c>
-      <c r="B17" s="16">
-        <v>5</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="18">
+    <row r="17" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="11">
         <v>2</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="39" t="s">
-        <v>140</v>
-      </c>
+      <c r="E17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="11">
         <v>2</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>138</v>
@@ -3818,37 +3842,37 @@
     </row>
     <row r="19" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D19" s="11">
         <v>2</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="11">
         <v>2</v>
@@ -3862,29 +3886,29 @@
       <c r="E20" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>90</v>
+      <c r="F20" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D21" s="11">
         <v>2</v>
@@ -3892,78 +3916,78 @@
       <c r="E21" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>92</v>
+      <c r="F21" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J21" s="44"/>
     </row>
-    <row r="22" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
-        <v>15</v>
-      </c>
-      <c r="B22" s="11">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="11">
+    <row r="22" spans="1:10" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="16">
+        <v>5</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="18">
         <v>2</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J22" s="44"/>
+      <c r="E22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="39" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B23" s="22">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D23" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="J23" s="40" t="s">
-        <v>144</v>
+      <c r="J23" s="45" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3974,7 +3998,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="22">
         <v>2</v>
@@ -3995,26 +4019,34 @@
       <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
+      <c r="A25" s="22">
+        <v>16</v>
+      </c>
+      <c r="B25" s="22">
+        <v>2</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>144</v>
+      </c>
       <c r="D25" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="I25" s="26"/>
-      <c r="J25" s="40"/>
+      <c r="J25" s="40" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22"/>
@@ -4024,97 +4056,93 @@
         <v>3</v>
       </c>
       <c r="E26" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>150</v>
-      </c>
       <c r="H26" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22">
-        <v>18</v>
-      </c>
-      <c r="B27" s="22">
-        <v>2</v>
-      </c>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="23"/>
       <c r="D27" s="22">
         <v>3</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="I27" s="26"/>
-      <c r="J27" s="29"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="22">
         <v>3</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="22">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="22">
         <v>3</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I29" s="26"/>
-      <c r="J29" s="40"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22">
@@ -12880,7 +12908,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -12922,31 +12950,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
       </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
       <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" t="s">
-        <v>169</v>
-      </c>
       <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
         <v>172</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>173</v>
       </c>
-      <c r="H1" t="s">
-        <v>174</v>
-      </c>
       <c r="I1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -12960,7 +12988,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3">
         <v>72</v>
@@ -12986,7 +13014,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -13012,7 +13040,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5">
         <v>72</v>
@@ -13036,12 +13064,12 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -1912,16 +1912,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.5</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1998,16 +1998,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.5</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,11 +2023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272225960"/>
-        <c:axId val="272224784"/>
+        <c:axId val="123585488"/>
+        <c:axId val="123586272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="272225960"/>
+        <c:axId val="123585488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,12 +2056,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="272224784"/>
+        <c:crossAx val="123586272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272224784"/>
+        <c:axId val="123586272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,7 +2096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="272225960"/>
+        <c:crossAx val="123585488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2260,11 +2260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="272225176"/>
-        <c:axId val="272220472"/>
+        <c:axId val="123587448"/>
+        <c:axId val="123587056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="272225176"/>
+        <c:axId val="123587448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2307,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272220472"/>
+        <c:crossAx val="123587056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2315,7 +2315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="272220472"/>
+        <c:axId val="123587056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,7 +2366,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272225176"/>
+        <c:crossAx val="123587448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3320,7 +3320,7 @@
   <dimension ref="A1:XFB48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3971,7 +3971,7 @@
         <v>176</v>
       </c>
       <c r="D23" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>34</v>
@@ -12837,7 +12837,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12860,11 +12860,11 @@
       </c>
       <c r="B2" s="8">
         <f>SUMIF('Base User Story List'!D:D,2,'Base User Story List'!B:B)</f>
-        <v>28.5</v>
+        <v>41.5</v>
       </c>
       <c r="C2" s="8">
         <f>SUMIF('Base User Story List'!D:D,2,'Base User Story List'!B:B)</f>
-        <v>28.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -12873,11 +12873,11 @@
       </c>
       <c r="B3" s="8">
         <f>B2-SUMIF('Base User Story List'!C:C,"2-1",'Base User Story List'!B:B)</f>
-        <v>12.5</v>
+        <v>25.5</v>
       </c>
       <c r="C3" s="8">
         <f>C2-SUMIF('Base User Story List'!I:I,"2-1",'Base User Story List'!B:B)</f>
-        <v>17.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -12886,11 +12886,11 @@
       </c>
       <c r="B4" s="8">
         <f>B3-SUMIF('Base User Story List'!C:C,"2-2",'Base User Story List'!B:B)</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8">
         <f>C3-SUMIF('Base User Story List'!I:I,"2-2",'Base User Story List'!B:B)</f>
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -12899,11 +12899,11 @@
       </c>
       <c r="B5" s="8">
         <f>B4-SUMIF('Base User Story List'!C:C,"2-3",'Base User Story List'!B:B)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8">
         <f>C4-SUMIF('Base User Story List'!I:I,"2-3",'Base User Story List'!B:B)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="100" yWindow="3520" windowWidth="25500" windowHeight="20040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="215">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -1309,27 +1309,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用ログをデータベースに保存できる</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>misc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用ログを送信する</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソウシン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1699,16 +1679,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sprint 2-4 のレビューで出たコメントを反映する</t>
-    <rPh sb="17" eb="18">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>発表資料作成 1P</t>
     <rPh sb="0" eb="2">
       <t>ハッピョウ</t>
@@ -1880,6 +1850,93 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprint 2-4 のレビューで出たコメントを反映する
+WebDB でコメントを貰うかもしれないのでその対応も</t>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モラ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバも立てる</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用ログのために優先度上げた
+12/5で使えるように</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用ログを取得してメモリ上に保存できる</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用ログをサーバへ送信する</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文のために最優先
+現時点ではWeb版のためにDBには保存しない</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイユウセン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1888,7 +1945,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1982,8 +2039,24 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1999,12 +2072,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,10 +2128,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2087,9 +2162,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2103,24 +2175,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2170,9 +2224,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2184,9 +2235,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2263,33 +2311,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2523,11 +2561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2089767976"/>
-        <c:axId val="2091174824"/>
+        <c:axId val="2098988808"/>
+        <c:axId val="2098994296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2089767976"/>
+        <c:axId val="2098988808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,12 +2593,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091174824"/>
+        <c:crossAx val="2098994296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2091174824"/>
+        <c:axId val="2098994296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089767976"/>
+        <c:crossAx val="2098988808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2810,11 +2848,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2089222072"/>
-        <c:axId val="2089227560"/>
+        <c:axId val="2099554760"/>
+        <c:axId val="2099560248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2089222072"/>
+        <c:axId val="2099554760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,12 +2880,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089227560"/>
+        <c:crossAx val="2099560248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2089227560"/>
+        <c:axId val="2099560248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,7 +2919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089222072"/>
+        <c:crossAx val="2099554760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3046,11 +3084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089728088"/>
-        <c:axId val="2104009672"/>
+        <c:axId val="2099612440"/>
+        <c:axId val="2099617848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089728088"/>
+        <c:axId val="2099612440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3093,7 +3131,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104009672"/>
+        <c:crossAx val="2099617848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3101,7 +3139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104009672"/>
+        <c:axId val="2099617848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3152,7 +3190,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089728088"/>
+        <c:crossAx val="2099612440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4142,7 +4180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -4167,1363 +4205,1369 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A2" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:10" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A2" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A3" s="30">
+    <row r="3" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="23">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A4" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A5" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A6" s="10">
+        <v>2.31</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A7" s="10">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A8" s="10">
+        <v>2.33</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="F8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A9" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" s="60" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A11" s="10">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A12" s="10">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A13" s="10">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A15" s="10">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="40"/>
+      <c r="I15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="34"/>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A4" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="16" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A16" s="10">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="E16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A17" s="10">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A18" s="10">
+        <v>12</v>
+      </c>
+      <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="C18" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A19" s="10">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A20" s="10">
+        <v>14</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="34"/>
+    </row>
+    <row r="21" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A21" s="10">
+        <v>15</v>
+      </c>
+      <c r="B21" s="10">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" spans="1:10" s="60" customFormat="1" ht="50" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A23" s="10">
+        <v>17</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A24" s="10">
+        <v>16</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A25" s="10">
+        <v>10</v>
+      </c>
+      <c r="B25" s="51">
+        <v>5</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="53">
+        <v>2</v>
+      </c>
+      <c r="E25" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="F25" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A26" s="10">
         <v>20</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="41"/>
+      <c r="B26" s="10">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="58" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A5" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B5" s="11">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="s">
+    <row r="27" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A27" s="10">
+        <v>10</v>
+      </c>
+      <c r="B27" s="51">
+        <v>5</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="53">
+        <v>3</v>
+      </c>
+      <c r="E27" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="F27" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A28" s="10">
         <v>20</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="41"/>
+      <c r="B28" s="10">
+        <v>5</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="10">
+        <v>3</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="58" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A6" s="11">
-        <v>2.31</v>
-      </c>
-      <c r="B6" s="11">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="41"/>
+    <row r="29" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="10">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="58"/>
     </row>
-    <row r="7" spans="1:10" s="69" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A7" s="11">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="B7" s="11">
+    <row r="30" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="41"/>
-    </row>
-    <row r="8" spans="1:10" s="69" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A8" s="11">
-        <v>2.33</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="9" spans="1:10" s="69" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A9" s="11">
-        <v>2.4</v>
-      </c>
-      <c r="B9" s="11">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="41"/>
-    </row>
-    <row r="10" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="11">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="41"/>
-    </row>
-    <row r="11" spans="1:10" s="69" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A11" s="11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A12" s="11">
-        <v>5</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A13" s="11">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A14" s="11">
-        <v>7</v>
-      </c>
-      <c r="B14" s="11">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A15" s="11">
-        <v>8</v>
-      </c>
-      <c r="B15" s="11">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="42"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A16" s="11">
-        <v>9</v>
-      </c>
-      <c r="B16" s="11">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="11">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A18" s="11">
-        <v>12</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="11">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="11">
-        <v>2</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11">
-        <v>2</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="11">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11">
-        <v>3</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="11">
-        <v>2</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="1:10" s="69" customFormat="1" ht="50" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="11">
-        <v>2</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A23" s="11">
-        <v>17</v>
-      </c>
-      <c r="B23" s="11">
-        <v>2</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="11">
-        <v>2</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A24" s="11">
-        <v>16</v>
-      </c>
-      <c r="B24" s="11">
-        <v>2</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="11">
-        <v>2</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="68" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A25" s="11">
-        <v>10</v>
-      </c>
-      <c r="B25" s="60">
-        <v>5</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="62">
-        <v>2</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="67" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="69" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A26" s="11">
-        <v>20</v>
-      </c>
-      <c r="B26" s="11">
-        <v>5</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="11">
-        <v>2</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="67" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="10" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A27" s="22">
-        <v>10</v>
-      </c>
-      <c r="B27" s="16">
-        <v>5</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="18">
-        <v>3</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="39" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="76" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A28" s="70">
-        <v>20</v>
-      </c>
-      <c r="B28" s="70">
-        <v>5</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="70">
-        <v>3</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="75" t="s">
+      <c r="E30" s="12" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="22">
-        <v>3</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="30" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="22">
-        <v>3</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="77" t="s">
+      <c r="H30" s="12" t="s">
         <v>207</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="62" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="22">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="15">
         <v>3</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="77" t="s">
-        <v>192</v>
+      <c r="E31" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="22" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15">
         <v>3</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="H32" s="24" t="s">
+      <c r="E32" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="22" t="s">
         <v>210</v>
-      </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="77" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="22">
-        <v>3</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="29"/>
+      <c r="A33" s="15">
+        <v>30</v>
+      </c>
+      <c r="B33" s="15">
+        <v>5</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="15">
+        <v>4</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="34" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22">
+      <c r="A34" s="15">
+        <v>18</v>
+      </c>
+      <c r="B34" s="15">
+        <v>2</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="15">
         <v>3</v>
       </c>
-      <c r="E34" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="29"/>
+      <c r="E34" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="22" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A35" s="22">
-        <v>33</v>
-      </c>
-      <c r="B35" s="22">
-        <v>8</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="22">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="15">
         <v>3</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="43"/>
+      <c r="E35" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="61" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A36" s="22">
-        <v>18</v>
-      </c>
-      <c r="B36" s="22">
-        <v>2</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="22">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15">
         <v>3</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="29"/>
+      <c r="E36" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="61" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A37" s="22">
-        <v>19</v>
-      </c>
-      <c r="B37" s="22">
+      <c r="A37" s="15">
+        <v>33</v>
+      </c>
+      <c r="B37" s="15">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15">
         <v>3</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="22">
-        <v>3</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="29"/>
+      <c r="E37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="35"/>
     </row>
     <row r="38" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A38" s="22">
-        <v>25</v>
-      </c>
-      <c r="B38" s="22">
-        <v>8</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="22">
+      <c r="A38" s="15">
+        <v>19</v>
+      </c>
+      <c r="B38" s="15">
         <v>3</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="43"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="15">
+        <v>3</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A39" s="22">
-        <v>21</v>
-      </c>
-      <c r="B39" s="22">
-        <v>5</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="22">
-        <v>4</v>
-      </c>
-      <c r="E39" s="24" t="s">
+      <c r="A39" s="15">
+        <v>25</v>
+      </c>
+      <c r="B39" s="15">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="15">
+        <v>3</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="29"/>
+      <c r="F39" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="35"/>
     </row>
     <row r="40" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A40" s="22">
-        <v>22</v>
-      </c>
-      <c r="B40" s="22">
-        <v>3</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="22">
+      <c r="A40" s="15">
+        <v>21</v>
+      </c>
+      <c r="B40" s="15">
+        <v>5</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15">
         <v>4</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="29"/>
+      <c r="F40" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A41" s="22">
-        <v>23</v>
-      </c>
-      <c r="B41" s="22">
-        <v>5</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="22">
+      <c r="A41" s="15">
+        <v>22</v>
+      </c>
+      <c r="B41" s="15">
+        <v>3</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="15">
         <v>4</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="29" t="s">
-        <v>179</v>
-      </c>
+      <c r="E41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A42" s="22">
-        <v>29</v>
-      </c>
-      <c r="B42" s="22">
+      <c r="A42" s="15">
+        <v>23</v>
+      </c>
+      <c r="B42" s="15">
         <v>5</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="22">
+      <c r="C42" s="16"/>
+      <c r="D42" s="15">
         <v>4</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="43"/>
+      <c r="E42" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="22" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A43" s="22">
-        <v>34</v>
-      </c>
-      <c r="B43" s="22">
+      <c r="A43" s="15">
+        <v>29</v>
+      </c>
+      <c r="B43" s="15">
         <v>5</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="22">
+      <c r="C43" s="16"/>
+      <c r="D43" s="15">
         <v>4</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="26"/>
-      <c r="J43" s="43"/>
+      <c r="F43" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A44" s="22">
-        <v>30</v>
-      </c>
-      <c r="B44" s="22">
+      <c r="A44" s="15">
+        <v>34</v>
+      </c>
+      <c r="B44" s="15">
         <v>5</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="22">
+      <c r="C44" s="16"/>
+      <c r="D44" s="15">
         <v>4</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="26"/>
-      <c r="J44" s="43"/>
+      <c r="F44" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A45" s="22">
+      <c r="A45" s="15">
         <v>26</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="15">
         <v>5</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="22">
+      <c r="C45" s="16"/>
+      <c r="D45" s="15">
         <v>4</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="43"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A46" s="22">
+      <c r="A46" s="15">
         <v>27</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="15">
         <v>3</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="22">
+      <c r="C46" s="16"/>
+      <c r="D46" s="15">
         <v>4</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="26"/>
-      <c r="J46" s="43"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A47" s="22">
+      <c r="A47" s="15">
         <v>31</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="15">
         <v>5</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="22">
+      <c r="C47" s="16"/>
+      <c r="D47" s="15">
         <v>4</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="43"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="35"/>
     </row>
     <row r="48" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A48" s="22">
+      <c r="A48" s="15">
         <v>32</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="15">
         <v>5</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="22">
+      <c r="C48" s="16"/>
+      <c r="D48" s="15">
         <v>4</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="43"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="35"/>
     </row>
     <row r="49" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
-      <c r="A49" s="22">
+      <c r="A49" s="15">
         <v>35</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="15">
         <v>13</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="22">
+      <c r="C49" s="16"/>
+      <c r="D49" s="15">
         <v>5</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="H49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I49" s="26"/>
-      <c r="J49" s="43"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="35"/>
     </row>
     <row r="50" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
-      <c r="A50" s="22">
+      <c r="A50" s="15">
         <v>36</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="15">
         <v>8</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="22">
+      <c r="C50" s="16"/>
+      <c r="D50" s="15">
         <v>5</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="H50" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="43"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="35"/>
       <c r="L50" s="2"/>
       <c r="N50" s="5"/>
       <c r="Q50" s="2"/>
@@ -13712,132 +13756,132 @@
       <c r="XFB50" s="5"/>
     </row>
     <row r="51" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
-      <c r="A51" s="22">
+      <c r="A51" s="15">
         <v>37</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="15">
         <v>8</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="22" t="s">
+      <c r="C51" s="16"/>
+      <c r="D51" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="24" t="s">
+      <c r="H51" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="26"/>
-      <c r="J51" s="43"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="35"/>
     </row>
     <row r="52" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
-      <c r="A52" s="22">
+      <c r="A52" s="15">
         <v>38</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="22" t="s">
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="26"/>
-      <c r="J52" s="43"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="35"/>
     </row>
     <row r="53" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
-      <c r="A53" s="22">
+      <c r="A53" s="15">
         <v>39</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="22" t="s">
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="26"/>
-      <c r="J53" s="43"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
-      <c r="A54" s="46">
+      <c r="A54" s="37">
         <v>24</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="37">
         <v>5</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="46">
+      <c r="C54" s="38"/>
+      <c r="D54" s="37">
         <v>3</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="H54" s="50" t="s">
+      <c r="G54" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H54" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I54" s="51"/>
-      <c r="J54" s="52" t="s">
+      <c r="I54" s="42"/>
+      <c r="J54" s="43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="59" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A55" s="53">
+    <row r="55" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="50" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A55" s="44">
         <v>28</v>
       </c>
-      <c r="B55" s="53">
+      <c r="B55" s="44">
         <v>5</v>
       </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="53">
+      <c r="C55" s="45"/>
+      <c r="D55" s="44">
         <v>3</v>
       </c>
-      <c r="E55" s="55" t="s">
+      <c r="E55" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="56" t="s">
+      <c r="G55" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="H55" s="55" t="s">
+      <c r="H55" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="57"/>
-      <c r="J55" s="58"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="49"/>
     </row>
   </sheetData>
   <sortState ref="A15:I44">
@@ -13929,8 +13973,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28" t="s">
-        <v>154</v>
+      <c r="A6" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -14015,8 +14059,8 @@
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28" t="s">
-        <v>154</v>
+      <c r="A6" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -14049,7 +14093,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="5" width="12.83203125" customWidth="1"/>
@@ -14060,32 +14104,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
-        <v>145</v>
+      <c r="A1" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" t="s">
-        <v>162</v>
-      </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
         <v>166</v>
       </c>
-      <c r="G1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" t="s">
-        <v>168</v>
-      </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -14098,8 +14142,8 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="27" t="s">
-        <v>156</v>
+      <c r="A3" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="B3">
         <v>72</v>
@@ -14124,8 +14168,8 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="27" t="s">
-        <v>157</v>
+      <c r="A4" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -14150,8 +14194,8 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="27" t="s">
-        <v>146</v>
+      <c r="A5" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="B5">
         <v>72</v>
@@ -14175,12 +14219,12 @@
         <v>9.722222222222221E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="27" t="s">
-        <v>169</v>
+      <c r="A6" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -14205,13 +14249,13 @@
         <f>1/G6</f>
         <v>0.1</v>
       </c>
-      <c r="I6" s="45" t="s">
-        <v>186</v>
+      <c r="I6" s="36" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="27" t="s">
-        <v>185</v>
+      <c r="A7" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -14224,7 +14268,7 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -98,12 +98,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="D11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+一度見積もりが正しいかどうか考えるために仕切りなおす。また余裕があるかどうかも見ておく。
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="221">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -810,13 +835,6 @@
     <t>セッションテーブルでTitleのKeyword検索をする</t>
     <rPh sb="23" eb="25">
       <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションテーブルからポスターのBookmarkを付ける</t>
-    <rPh sb="25" eb="26">
-      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1693,10 +1711,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出来ないとWeb DB不可・Weｂアプリでやる・Release3に持ち込し</t>
     <rPh sb="0" eb="2">
       <t>デキ</t>
@@ -1938,6 +1952,44 @@
     <rPh sb="27" eb="29">
       <t>ホゾン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポスターリストからポスターのBookmarkを付ける</t>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションリストも同様</t>
+    <rPh sb="9" eb="11">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1945,7 +1997,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2054,6 +2106,19 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2372,6 +2437,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2561,11 +2627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2098988808"/>
-        <c:axId val="2098994296"/>
+        <c:axId val="2083118296"/>
+        <c:axId val="2082034968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2098988808"/>
+        <c:axId val="2083118296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,18 +2653,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098994296"/>
+        <c:crossAx val="2082034968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2098994296"/>
+        <c:axId val="2082034968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,19 +2693,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098988808"/>
+        <c:crossAx val="2083118296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2683,6 +2752,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2758,10 +2828,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41.0</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,11 +2918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099554760"/>
-        <c:axId val="2099560248"/>
+        <c:axId val="2083164824"/>
+        <c:axId val="2083170312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099554760"/>
+        <c:axId val="2083164824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,18 +2944,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099560248"/>
+        <c:crossAx val="2083170312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099560248"/>
+        <c:axId val="2083170312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,19 +2984,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099554760"/>
+        <c:crossAx val="2083164824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2955,6 +3028,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3084,11 +3158,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099612440"/>
-        <c:axId val="2099617848"/>
+        <c:axId val="2083222280"/>
+        <c:axId val="2083227688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099612440"/>
+        <c:axId val="2083222280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3131,7 +3205,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099617848"/>
+        <c:crossAx val="2083227688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3139,7 +3213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099617848"/>
+        <c:axId val="2083227688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,7 +3264,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099612440"/>
+        <c:crossAx val="2083222280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4180,8 +4254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -4207,7 +4281,7 @@
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
       <c r="A2" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>32</v>
@@ -4231,7 +4305,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>67</v>
@@ -4245,7 +4319,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="23">
         <v>1</v>
@@ -4273,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -4301,7 +4375,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -4329,7 +4403,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -4357,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -4385,7 +4459,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -4413,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -4441,7 +4515,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -4469,26 +4543,26 @@
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
@@ -4496,13 +4570,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>68</v>
@@ -4518,7 +4592,7 @@
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
@@ -4529,10 +4603,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>31</v>
@@ -4548,7 +4622,7 @@
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
@@ -4559,25 +4633,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="10">
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="I14" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="34"/>
     </row>
@@ -4589,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
@@ -4601,13 +4675,13 @@
         <v>72</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J15" s="34"/>
     </row>
@@ -4619,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="10">
         <v>2</v>
@@ -4631,13 +4705,13 @@
         <v>72</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J16" s="34"/>
     </row>
@@ -4649,25 +4723,25 @@
         <v>0.5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="34"/>
     </row>
@@ -4679,25 +4753,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="10">
         <v>2</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="G18" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J18" s="34"/>
     </row>
@@ -4709,25 +4783,25 @@
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J19" s="34"/>
     </row>
@@ -4739,25 +4813,25 @@
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="10">
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J20" s="34"/>
     </row>
@@ -4769,25 +4843,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" s="10">
         <v>2</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" s="34"/>
     </row>
@@ -4797,28 +4871,28 @@
         <v>0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="10">
         <v>2</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="I22" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" s="34" t="s">
         <v>173</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
@@ -4829,28 +4903,28 @@
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="10">
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="I23" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
@@ -4861,28 +4935,28 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="10">
         <v>2</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="34" t="s">
         <v>181</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1">
@@ -4893,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="53">
         <v>2</v>
@@ -4905,14 +4979,14 @@
         <v>72</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" s="54" t="s">
         <v>19</v>
       </c>
       <c r="I25" s="57"/>
       <c r="J25" s="58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
@@ -4923,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -4935,14 +5009,14 @@
         <v>42</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1">
@@ -4953,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" s="53">
         <v>3</v>
@@ -4965,14 +5039,14 @@
         <v>72</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H27" s="54" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="57"/>
       <c r="J27" s="58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
@@ -4983,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D28" s="10">
         <v>3</v>
@@ -4995,110 +5069,120 @@
         <v>42</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
+      <c r="B29" s="10">
+        <v>8</v>
+      </c>
       <c r="C29" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D29" s="10">
         <v>3</v>
       </c>
       <c r="E29" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
       <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="D30" s="10">
         <v>3</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F30" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="26.25" customHeight="1">
       <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>3</v>
+      </c>
       <c r="C31" s="16"/>
       <c r="D31" s="15">
         <v>3</v>
       </c>
       <c r="E31" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="26.25" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15">
+        <v>3</v>
+      </c>
       <c r="C32" s="16"/>
       <c r="D32" s="15">
         <v>3</v>
       </c>
       <c r="E32" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.25" customHeight="1">
@@ -5106,7 +5190,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15">
@@ -5119,13 +5203,15 @@
         <v>38</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>27</v>
       </c>
       <c r="I33" s="19"/>
-      <c r="J33" s="35"/>
+      <c r="J33" s="35" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="26.25" customHeight="1">
       <c r="A34" s="15">
@@ -5145,38 +5231,40 @@
         <v>39</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>24</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.25" customHeight="1">
       <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15">
+        <v>5</v>
+      </c>
       <c r="C35" s="16"/>
       <c r="D35" s="15">
         <v>3</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="26.25" customHeight="1">
@@ -5187,20 +5275,20 @@
         <v>3</v>
       </c>
       <c r="E36" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="G36" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="H36" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>189</v>
       </c>
       <c r="I36" s="19"/>
       <c r="J36" s="61" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="26.25" customHeight="1">
@@ -5241,16 +5329,16 @@
         <v>3</v>
       </c>
       <c r="E38" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="22"/>
@@ -5270,10 +5358,10 @@
         <v>31</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>25</v>
@@ -5345,20 +5433,20 @@
         <v>4</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="H42" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="26.25" customHeight="1">
@@ -5405,7 +5493,7 @@
         <v>48</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H44" s="17" t="s">
         <v>21</v>
@@ -5483,7 +5571,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>26</v>
@@ -13847,14 +13935,14 @@
         <v>41</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H54" s="41" t="s">
         <v>22</v>
       </c>
       <c r="I54" s="42"/>
       <c r="J54" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="50" customFormat="1" ht="26.25" customHeight="1">
@@ -13914,15 +14002,15 @@
     <row r="1" spans="1:3">
       <c r="A1" s="6"/>
       <c r="B1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="8">
         <f>SUMIF('Base User Story List'!D:D,2,'Base User Story List'!B:B)</f>
@@ -13935,7 +14023,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="8">
         <f>B2-SUMIF('Base User Story List'!C:C,"2-1",'Base User Story List'!B:B)</f>
@@ -13948,7 +14036,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="8">
         <f>B3-SUMIF('Base User Story List'!C:C,"2-2",'Base User Story List'!B:B)</f>
@@ -13961,7 +14049,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="8">
         <f>B4-SUMIF('Base User Story List'!C:C,"2-3",'Base User Story List'!B:B)</f>
@@ -13974,7 +14062,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -13986,7 +14074,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -14018,56 +14106,56 @@
     <row r="1" spans="1:3">
       <c r="A1" s="6"/>
       <c r="B1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="8">
         <f>SUMIF('Base User Story List'!D:D,3,'Base User Story List'!B:B)</f>
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="8">
         <f>B2-SUMIF('Base User Story List'!C:C,"3-1",'Base User Story List'!B:B)</f>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -14085,10 +14173,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -14105,31 +14193,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
       <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" t="s">
-        <v>161</v>
-      </c>
       <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
         <v>164</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>165</v>
       </c>
-      <c r="H1" t="s">
-        <v>166</v>
-      </c>
       <c r="I1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -14143,7 +14231,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>72</v>
@@ -14169,7 +14257,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -14195,7 +14283,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <v>72</v>
@@ -14219,12 +14307,12 @@
         <v>9.722222222222221E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
       <c r="A6" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -14250,12 +14338,12 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -14268,7 +14356,48 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C11" si="1">H7*B8-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11">
+        <v>115</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="BDC3" sheetId="5" r:id="rId3"/>
     <sheet name="Velocity" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="227">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -1990,6 +1990,30 @@
   </si>
   <si>
     <t>3-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprint5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2204,7 +2228,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2364,9 +2388,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2381,6 +2402,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2519,13 +2552,13 @@
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,13 +2638,13 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2627,11 +2660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083118296"/>
-        <c:axId val="2082034968"/>
+        <c:axId val="96557696"/>
+        <c:axId val="96572160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083118296"/>
+        <c:axId val="96557696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,12 +2693,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082034968"/>
+        <c:crossAx val="96572160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082034968"/>
+        <c:axId val="96572160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083118296"/>
+        <c:crossAx val="96557696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2800,9 +2833,9 @@
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>'BDC3'!$A$2:$A$6</c:f>
+              <c:f>'BDC3'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -2818,20 +2851,35 @@
                 <c:pt idx="4">
                   <c:v>Sprint4</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BDC3'!$B$2:$B$6</c:f>
+              <c:f>'BDC3'!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>62.0</c:v>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2877,9 +2925,9 @@
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>'BDC3'!$A$2:$A$6</c:f>
+              <c:f>'BDC3'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -2895,15 +2943,33 @@
                 <c:pt idx="4">
                   <c:v>Sprint4</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BDC3'!$C$2:$C$6</c:f>
+              <c:f>'BDC3'!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2918,11 +2984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083164824"/>
-        <c:axId val="2083170312"/>
+        <c:axId val="68186112"/>
+        <c:axId val="68188032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083164824"/>
+        <c:axId val="68186112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,12 +3017,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083170312"/>
+        <c:crossAx val="68188032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083170312"/>
+        <c:axId val="68188032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,7 +3057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083164824"/>
+        <c:crossAx val="68186112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3129,16 +3195,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.232558139534884</c:v>
+                  <c:v>0.23255813953488372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.152777777777778</c:v>
+                  <c:v>0.15277777777777776</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0972222222222222</c:v>
+                  <c:v>9.722222222222221E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
@@ -3158,11 +3224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2083222280"/>
-        <c:axId val="2083227688"/>
+        <c:axId val="97286400"/>
+        <c:axId val="97317248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083222280"/>
+        <c:axId val="97286400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3205,7 +3271,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083227688"/>
+        <c:crossAx val="97317248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3213,7 +3279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083227688"/>
+        <c:axId val="97317248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,7 +3330,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083222280"/>
+        <c:crossAx val="97286400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3927,6 +3993,137 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="2038351"/>
+          <a:ext cx="1543050" cy="809624"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 34722"/>
+            <a:gd name="adj2" fmla="val -102715"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> DB Forum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>版作成のためスプリントがめちゃくちゃに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>……</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="2552701"/>
+          <a:ext cx="1543050" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29784"/>
+            <a:gd name="adj2" fmla="val -144186"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開発はなんとか無事に間に合いました</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4254,32 +4451,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B34"/>
+    <sheetView topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="44.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="7"/>
-    <col min="10" max="10" width="58.83203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="6.1640625" style="3"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="44.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="7"/>
+    <col min="10" max="10" width="58.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="6.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" customHeight="1">
+    <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>161</v>
       </c>
@@ -4311,7 +4508,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
+    <row r="3" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -4339,7 +4536,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+    <row r="4" spans="1:10" s="59" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2.1</v>
       </c>
@@ -4367,7 +4564,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+    <row r="5" spans="1:10" s="59" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -4395,7 +4592,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+    <row r="6" spans="1:10" s="59" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>2.31</v>
       </c>
@@ -4423,7 +4620,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+    <row r="7" spans="1:10" s="59" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>2.3199999999999998</v>
       </c>
@@ -4451,7 +4648,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+    <row r="8" spans="1:10" s="59" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>2.33</v>
       </c>
@@ -4479,7 +4676,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" s="60" customFormat="1" ht="36.75" customHeight="1">
+    <row r="9" spans="1:10" s="59" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2.4</v>
       </c>
@@ -4507,7 +4704,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="10" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -4535,7 +4732,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" s="60" customFormat="1" ht="34.5" customHeight="1">
+    <row r="11" spans="1:10" s="59" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>4</v>
       </c>
@@ -4565,7 +4762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="12" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>5</v>
       </c>
@@ -4595,7 +4792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="13" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>6</v>
       </c>
@@ -4625,7 +4822,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="14" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>7</v>
       </c>
@@ -4655,7 +4852,7 @@
       </c>
       <c r="J14" s="34"/>
     </row>
-    <row r="15" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="15" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>8</v>
       </c>
@@ -4685,7 +4882,7 @@
       </c>
       <c r="J15" s="34"/>
     </row>
-    <row r="16" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="16" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>9</v>
       </c>
@@ -4715,7 +4912,7 @@
       </c>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="17" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>11</v>
       </c>
@@ -4745,7 +4942,7 @@
       </c>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="18" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>12</v>
       </c>
@@ -4775,7 +4972,7 @@
       </c>
       <c r="J18" s="34"/>
     </row>
-    <row r="19" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="19" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>13</v>
       </c>
@@ -4805,7 +5002,7 @@
       </c>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="20" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>14</v>
       </c>
@@ -4835,7 +5032,7 @@
       </c>
       <c r="J20" s="34"/>
     </row>
-    <row r="21" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="21" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>15</v>
       </c>
@@ -4865,7 +5062,7 @@
       </c>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="1:10" s="60" customFormat="1" ht="50" customHeight="1">
+    <row r="22" spans="1:10" s="59" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10">
         <v>0</v>
@@ -4895,7 +5092,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="23" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>17</v>
       </c>
@@ -4927,7 +5124,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="24" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>16</v>
       </c>
@@ -4959,7 +5156,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1">
+    <row r="25" spans="1:10" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>10</v>
       </c>
@@ -4984,12 +5181,14 @@
       <c r="H25" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58" t="s">
+      <c r="I25" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" s="57" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="26" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>20</v>
       </c>
@@ -5014,12 +5213,14 @@
       <c r="H26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="58" t="s">
+      <c r="I26" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" s="57" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1">
+    <row r="27" spans="1:10" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>10</v>
       </c>
@@ -5044,12 +5245,14 @@
       <c r="H27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58" t="s">
+      <c r="I27" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" s="57" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="28" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>20</v>
       </c>
@@ -5074,12 +5277,14 @@
       <c r="H28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="58" t="s">
+      <c r="I28" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" s="57" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="29" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10">
         <v>8</v>
@@ -5102,10 +5307,12 @@
       <c r="H29" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="58"/>
+      <c r="I29" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" s="57"/>
     </row>
-    <row r="30" spans="1:10" s="60" customFormat="1" ht="26.25" customHeight="1">
+    <row r="30" spans="1:10" s="59" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10">
         <v>2</v>
@@ -5128,17 +5335,21 @@
       <c r="H30" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="62" t="s">
+      <c r="I30" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" s="61" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="26.25" customHeight="1">
+    <row r="31" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="15">
         <v>3</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="D31" s="15">
         <v>3</v>
       </c>
@@ -5159,12 +5370,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="26.25" customHeight="1">
+    <row r="32" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="15">
         <v>3</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="D32" s="15">
         <v>3</v>
       </c>
@@ -5185,14 +5398,16 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="26.25" customHeight="1">
+    <row r="33" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>30</v>
       </c>
       <c r="B33" s="15">
         <v>2</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="D33" s="15">
         <v>4</v>
       </c>
@@ -5213,14 +5428,16 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="26.25" customHeight="1">
+    <row r="34" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>18</v>
       </c>
       <c r="B34" s="15">
         <v>2</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="D34" s="15">
         <v>3</v>
       </c>
@@ -5241,7 +5458,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="26.25" customHeight="1">
+    <row r="35" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="15">
         <v>5</v>
@@ -5263,11 +5480,11 @@
         <v>199</v>
       </c>
       <c r="I35" s="19"/>
-      <c r="J35" s="61" t="s">
+      <c r="J35" s="60" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="26.25" customHeight="1">
+    <row r="36" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -5287,11 +5504,11 @@
         <v>188</v>
       </c>
       <c r="I36" s="19"/>
-      <c r="J36" s="61" t="s">
+      <c r="J36" s="60" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="26.25" customHeight="1">
+    <row r="37" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>33</v>
       </c>
@@ -5317,7 +5534,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="35"/>
     </row>
-    <row r="38" spans="1:10" ht="26.25" customHeight="1">
+    <row r="38" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>19</v>
       </c>
@@ -5343,7 +5560,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="22"/>
     </row>
-    <row r="39" spans="1:10" ht="26.25" customHeight="1">
+    <row r="39" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>25</v>
       </c>
@@ -5369,7 +5586,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="35"/>
     </row>
-    <row r="40" spans="1:10" ht="26.25" customHeight="1">
+    <row r="40" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>21</v>
       </c>
@@ -5395,7 +5612,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="22"/>
     </row>
-    <row r="41" spans="1:10" ht="26.25" customHeight="1">
+    <row r="41" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>22</v>
       </c>
@@ -5421,7 +5638,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="22"/>
     </row>
-    <row r="42" spans="1:10" ht="26.25" customHeight="1">
+    <row r="42" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>23</v>
       </c>
@@ -5449,7 +5666,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="26.25" customHeight="1">
+    <row r="43" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>29</v>
       </c>
@@ -5475,7 +5692,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="35"/>
     </row>
-    <row r="44" spans="1:10" ht="26.25" customHeight="1">
+    <row r="44" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15">
         <v>34</v>
       </c>
@@ -5501,7 +5718,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="35"/>
     </row>
-    <row r="45" spans="1:10" ht="26.25" customHeight="1">
+    <row r="45" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15">
         <v>26</v>
       </c>
@@ -5527,7 +5744,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" spans="1:10" ht="26.25" customHeight="1">
+    <row r="46" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="15">
         <v>27</v>
       </c>
@@ -5553,7 +5770,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="35"/>
     </row>
-    <row r="47" spans="1:10" ht="26.25" customHeight="1">
+    <row r="47" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15">
         <v>31</v>
       </c>
@@ -5579,7 +5796,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="35"/>
     </row>
-    <row r="48" spans="1:10" ht="26.25" customHeight="1">
+    <row r="48" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="15">
         <v>32</v>
       </c>
@@ -5605,7 +5822,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="35"/>
     </row>
-    <row r="49" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
+    <row r="49" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="15">
         <v>35</v>
       </c>
@@ -5631,7 +5848,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="35"/>
     </row>
-    <row r="50" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
+    <row r="50" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="15">
         <v>36</v>
       </c>
@@ -13843,7 +14060,7 @@
       <c r="XEZ50" s="2"/>
       <c r="XFB50" s="5"/>
     </row>
-    <row r="51" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
+    <row r="51" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="15">
         <v>37</v>
       </c>
@@ -13869,7 +14086,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="35"/>
     </row>
-    <row r="52" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
+    <row r="52" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="15">
         <v>38</v>
       </c>
@@ -13893,7 +14110,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="35"/>
     </row>
-    <row r="53" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
+    <row r="53" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="15">
         <v>39</v>
       </c>
@@ -13917,7 +14134,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="35"/>
     </row>
-    <row r="54" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
+    <row r="54" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="37">
         <v>24</v>
       </c>
@@ -13945,7 +14162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="50" customFormat="1" ht="26.25" customHeight="1">
+    <row r="55" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="50" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="44">
         <v>28</v>
       </c>
@@ -13991,15 +14208,15 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="8.83203125" style="9"/>
+    <col min="2" max="3" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="8" t="s">
         <v>105</v>
@@ -14008,7 +14225,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
@@ -14021,7 +14238,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -14034,7 +14251,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>109</v>
       </c>
@@ -14047,7 +14264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -14060,7 +14277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>151</v>
       </c>
@@ -14072,7 +14289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
         <v>111</v>
       </c>
@@ -14094,67 +14311,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="8.83203125" style="9"/>
+    <col min="2" max="3" width="8.875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="62">
         <f>SUMIF('Base User Story List'!D:D,3,'Base User Story List'!B:B)</f>
         <v>62</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="62">
+        <f>SUMIF('Base User Story List'!D:D,3,'Base User Story List'!B:B)</f>
+        <v>62</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="63">
         <f>B2-SUMIF('Base User Story List'!C:C,"3-1",'Base User Story List'!B:B)</f>
         <v>57</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="63">
+        <f>C2-SUMIF('Base User Story List'!I:I,"3-1",'Base User Story List'!B:B)</f>
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="63">
+        <f>B3-SUMIF('Base User Story List'!C:C,"3-2",'Base User Story List'!B:B)</f>
+        <v>49</v>
+      </c>
+      <c r="C4" s="63">
+        <f>C3-SUMIF('Base User Story List'!I:I,"3-2",'Base User Story List'!B:B)</f>
+        <v>62</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="63">
+        <f>B4-SUMIF('Base User Story List'!C:C,"3-3",'Base User Story List'!B:B)</f>
+        <v>49</v>
+      </c>
+      <c r="C5" s="63">
+        <f>C4-SUMIF('Base User Story List'!I:I,"3-3",'Base User Story List'!B:B)</f>
+        <v>62</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="63">
+        <f>B5-SUMIF('Base User Story List'!C:C,"3-4",'Base User Story List'!B:B)</f>
+        <v>42</v>
+      </c>
+      <c r="C6" s="63">
+        <f>C5-SUMIF('Base User Story List'!I:I,"3-4",'Base User Story List'!B:B)</f>
+        <v>42</v>
+      </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="9" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="63">
+        <f>B6-SUMIF('Base User Story List'!C:C,"3-5",'Base User Story List'!B:B)</f>
+        <v>32</v>
+      </c>
+      <c r="C7" s="62"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="64" t="s">
         <v>111</v>
       </c>
     </row>
@@ -14175,23 +14426,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="5" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>142</v>
       </c>
@@ -14220,7 +14471,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G2">
         <v>4.3</v>
       </c>
@@ -14229,7 +14480,7 @@
         <v>0.23255813953488372</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>153</v>
       </c>
@@ -14255,7 +14506,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>154</v>
       </c>
@@ -14281,7 +14532,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>143</v>
       </c>
@@ -14310,7 +14561,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>166</v>
       </c>
@@ -14341,7 +14592,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>182</v>
       </c>
@@ -14359,34 +14610,22 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C8">
-        <f t="shared" ref="C8:C11" si="1">H7*B8-1</f>
-        <v>-1</v>
-      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>220</v>
       </c>
@@ -14394,7 +14633,7 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -14403,9 +14642,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="23560"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="249">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -2040,30 +2040,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>参加者</t>
-    <rPh sb="0" eb="3">
-      <t>サンカシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>すべてのポスターを網羅できるようにするため</t>
-    <rPh sb="9" eb="11">
-      <t>モウラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１１０件のポスターに対応する</t>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Map &amp; List</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2171,6 +2147,47 @@
   </si>
   <si>
     <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１１０件のポスターデータを入れて問題点を洗い出す</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>モンダイテン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリのスケーラビリティを確認するため</t>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2951,11 +2968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048064248"/>
-        <c:axId val="2048069784"/>
+        <c:axId val="2108413704"/>
+        <c:axId val="2108501336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2048064248"/>
+        <c:axId val="2108413704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,12 +3000,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048069784"/>
+        <c:crossAx val="2108501336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2048069784"/>
+        <c:axId val="2108501336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3022,7 +3039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048064248"/>
+        <c:crossAx val="2108413704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3274,11 +3291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117626312"/>
-        <c:axId val="2117631800"/>
+        <c:axId val="2108573592"/>
+        <c:axId val="2108579080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117626312"/>
+        <c:axId val="2108573592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3306,12 +3323,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117631800"/>
+        <c:crossAx val="2108579080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117631800"/>
+        <c:axId val="2108579080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,7 +3362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117626312"/>
+        <c:crossAx val="2108573592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3561,11 +3578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117692584"/>
-        <c:axId val="2117698072"/>
+        <c:axId val="2134585832"/>
+        <c:axId val="2134591320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117692584"/>
+        <c:axId val="2134585832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,12 +3610,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117698072"/>
+        <c:crossAx val="2134591320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117698072"/>
+        <c:axId val="2134591320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3632,7 +3649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117692584"/>
+        <c:crossAx val="2134585832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3797,11 +3814,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117750824"/>
-        <c:axId val="2117756232"/>
+        <c:axId val="2134644056"/>
+        <c:axId val="2134649464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117750824"/>
+        <c:axId val="2134644056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3844,7 +3861,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117756232"/>
+        <c:crossAx val="2134649464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3852,7 +3869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117756232"/>
+        <c:axId val="2134649464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,7 +3920,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117750824"/>
+        <c:crossAx val="2134644056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5061,8 +5078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -5940,7 +5957,7 @@
         <v>200</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>201</v>
@@ -6106,32 +6123,34 @@
       </c>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50">
+    <row r="36" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="10">
+        <v>4</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="50">
-        <v>4</v>
-      </c>
-      <c r="E36" s="52" t="s">
+      <c r="G36" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="F36" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G36" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="I36" s="54"/>
-      <c r="J36" s="53" t="s">
-        <v>238</v>
+      <c r="I36" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6142,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D37" s="50">
         <v>4</v>
@@ -6161,7 +6180,7 @@
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6172,7 +6191,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D38" s="50">
         <v>4</v>
@@ -6191,7 +6210,7 @@
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6202,7 +6221,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D39" s="50">
         <v>4</v>
@@ -6211,17 +6230,17 @@
         <v>29</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G39" s="53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H39" s="52" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="54"/>
       <c r="J39" s="50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6249,7 +6268,7 @@
       </c>
       <c r="I40" s="54"/>
       <c r="J40" s="50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6267,17 +6286,17 @@
         <v>29</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G41" s="53" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H41" s="52" t="s">
         <v>19</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6305,7 +6324,7 @@
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="50" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6333,7 +6352,7 @@
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6364,10 +6383,10 @@
       <c r="C45" s="73"/>
       <c r="D45" s="72"/>
       <c r="E45" s="74" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G45" s="75"/>
       <c r="H45" s="74"/>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="23560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -224,25 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポスターMapでいろいろな条件で検索する（後で詳細化）</t>
-    <rPh sb="13" eb="15">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投票する</t>
     <rPh sb="0" eb="2">
       <t>トウヒョウ</t>
@@ -2188,6 +2169,16 @@
   </si>
   <si>
     <t>4-0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポスターMapでいろいろな条件で検索する</t>
+    <rPh sb="13" eb="15">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2968,11 +2959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108413704"/>
-        <c:axId val="2108501336"/>
+        <c:axId val="-2144117784"/>
+        <c:axId val="-2144123304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108413704"/>
+        <c:axId val="-2144117784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,12 +2991,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108501336"/>
+        <c:crossAx val="-2144123304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108501336"/>
+        <c:axId val="-2144123304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108413704"/>
+        <c:crossAx val="-2144117784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3291,11 +3282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108573592"/>
-        <c:axId val="2108579080"/>
+        <c:axId val="-2144210456"/>
+        <c:axId val="-2144215976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108573592"/>
+        <c:axId val="-2144210456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3323,12 +3314,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108579080"/>
+        <c:crossAx val="-2144215976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108579080"/>
+        <c:axId val="-2144215976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,7 +3353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108573592"/>
+        <c:crossAx val="-2144210456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3578,11 +3569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2134585832"/>
-        <c:axId val="2134591320"/>
+        <c:axId val="-2144276728"/>
+        <c:axId val="-2144282248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2134585832"/>
+        <c:axId val="-2144276728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3610,12 +3601,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134591320"/>
+        <c:crossAx val="-2144282248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2134591320"/>
+        <c:axId val="-2144282248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +3640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134585832"/>
+        <c:crossAx val="-2144276728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3814,11 +3805,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134644056"/>
-        <c:axId val="2134649464"/>
+        <c:axId val="-2144336984"/>
+        <c:axId val="-2141799128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134644056"/>
+        <c:axId val="-2144336984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,7 +3852,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134649464"/>
+        <c:crossAx val="-2141799128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3869,7 +3860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134649464"/>
+        <c:axId val="-2141799128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3920,7 +3911,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134644056"/>
+        <c:crossAx val="-2144336984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5079,7 +5070,7 @@
   <dimension ref="A1:XFB60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -5105,10 +5096,10 @@
     </row>
     <row r="2" spans="1:10" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1</v>
@@ -5126,13 +5117,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
@@ -5143,22 +5134,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="25"/>
@@ -5171,22 +5162,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
@@ -5199,22 +5190,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
@@ -5227,22 +5218,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
@@ -5255,22 +5246,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="H7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
@@ -5283,22 +5274,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
@@ -5311,22 +5302,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
@@ -5339,22 +5330,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
@@ -5367,26 +5358,26 @@
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5394,29 +5385,29 @@
         <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5427,26 +5418,26 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5457,25 +5448,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="10">
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="I14" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" s="13"/>
     </row>
@@ -5487,25 +5478,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="13"/>
     </row>
@@ -5517,25 +5508,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10">
         <v>2</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" s="13"/>
     </row>
@@ -5547,25 +5538,25 @@
         <v>0.5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J17" s="13"/>
     </row>
@@ -5577,25 +5568,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="10">
         <v>2</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="G18" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J18" s="13"/>
     </row>
@@ -5607,25 +5598,25 @@
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="H19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J19" s="13"/>
     </row>
@@ -5637,25 +5628,25 @@
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="10">
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="H20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J20" s="13"/>
     </row>
@@ -5667,25 +5658,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="10">
         <v>2</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J21" s="13"/>
     </row>
@@ -5695,28 +5686,28 @@
         <v>0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="10">
         <v>2</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="I22" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5727,28 +5718,28 @@
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="10">
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="I23" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5759,28 +5750,28 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="10">
         <v>2</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="H24" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1">
@@ -5791,28 +5782,28 @@
         <v>5</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="34">
         <v>2</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5823,28 +5814,28 @@
         <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J26" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1">
@@ -5855,28 +5846,28 @@
         <v>5</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27" s="34">
         <v>3</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J27" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5887,28 +5878,28 @@
         <v>5</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="10">
         <v>3</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J28" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5917,25 +5908,25 @@
         <v>8</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" s="10">
         <v>3</v>
       </c>
       <c r="E29" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>196</v>
-      </c>
       <c r="I29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J29" s="63"/>
     </row>
@@ -5945,28 +5936,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D30" s="10">
         <v>3</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="I30" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="37" t="s">
         <v>201</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5975,28 +5966,28 @@
         <v>3</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="10">
         <v>3</v>
       </c>
       <c r="E31" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="I31" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -6005,28 +5996,28 @@
         <v>3</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" s="10">
         <v>3</v>
       </c>
       <c r="E32" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="I32" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -6037,28 +6028,28 @@
         <v>2</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="10">
         <v>3</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="J33" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -6069,28 +6060,28 @@
         <v>2</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="10">
         <v>3</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -6101,25 +6092,25 @@
         <v>3</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" s="10">
         <v>3</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="I35" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J35" s="13"/>
     </row>
@@ -6129,28 +6120,28 @@
         <v>3</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="10">
         <v>4</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>246</v>
-      </c>
       <c r="G36" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6161,26 +6152,26 @@
         <v>2</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D37" s="50">
         <v>4</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6191,26 +6182,26 @@
         <v>3</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D38" s="50">
         <v>4</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="53" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6221,26 +6212,26 @@
         <v>8</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D39" s="50">
         <v>4</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G39" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H39" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I39" s="54"/>
       <c r="J39" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6255,20 +6246,20 @@
         <v>4</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" s="53" t="s">
         <v>10</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" s="54"/>
       <c r="J40" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6283,20 +6274,20 @@
         <v>4</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G41" s="53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6311,20 +6302,20 @@
         <v>4</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G42" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H42" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6339,20 +6330,20 @@
         <v>4</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6365,13 +6356,13 @@
         <v>4</v>
       </c>
       <c r="E44" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="53" t="s">
+      <c r="G44" s="53" t="s">
         <v>225</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>226</v>
       </c>
       <c r="H44" s="52"/>
       <c r="I44" s="54"/>
@@ -6383,10 +6374,10 @@
       <c r="C45" s="73"/>
       <c r="D45" s="72"/>
       <c r="E45" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" s="75" t="s">
         <v>239</v>
-      </c>
-      <c r="F45" s="75" t="s">
-        <v>240</v>
       </c>
       <c r="G45" s="75"/>
       <c r="H45" s="74"/>
@@ -6403,16 +6394,16 @@
       <c r="C46" s="16"/>
       <c r="D46" s="15"/>
       <c r="E46" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="18"/>
@@ -6425,16 +6416,16 @@
       <c r="C47" s="16"/>
       <c r="D47" s="15"/>
       <c r="E47" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="18"/>
@@ -6449,20 +6440,20 @@
       <c r="C48" s="16"/>
       <c r="D48" s="15"/>
       <c r="E48" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L48" s="2"/>
       <c r="N48" s="5"/>
@@ -14661,16 +14652,16 @@
       <c r="C49" s="16"/>
       <c r="D49" s="15"/>
       <c r="E49" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="18"/>
@@ -14683,20 +14674,20 @@
       <c r="C50" s="45"/>
       <c r="D50" s="44"/>
       <c r="E50" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F50" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="G50" s="47" t="s">
-        <v>198</v>
-      </c>
       <c r="H50" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I50" s="48"/>
       <c r="J50" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
@@ -14705,20 +14696,20 @@
       <c r="C51" s="45"/>
       <c r="D51" s="44"/>
       <c r="E51" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="47" t="s">
+      <c r="G51" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="H51" s="46" t="s">
         <v>184</v>
-      </c>
-      <c r="H51" s="46" t="s">
-        <v>185</v>
       </c>
       <c r="I51" s="48"/>
       <c r="J51" s="64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
@@ -14731,20 +14722,20 @@
       <c r="C52" s="45"/>
       <c r="D52" s="44"/>
       <c r="E52" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F52" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="47" t="s">
-        <v>100</v>
-      </c>
       <c r="H52" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I52" s="48"/>
       <c r="J52" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
@@ -14755,16 +14746,16 @@
       <c r="C53" s="45"/>
       <c r="D53" s="44"/>
       <c r="E53" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G53" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I53" s="48"/>
       <c r="J53" s="47"/>
@@ -14779,16 +14770,16 @@
       <c r="C54" s="45"/>
       <c r="D54" s="44"/>
       <c r="E54" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G54" s="47" t="s">
         <v>8</v>
       </c>
       <c r="H54" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I54" s="48"/>
       <c r="J54" s="47"/>
@@ -14803,16 +14794,16 @@
       <c r="C55" s="45"/>
       <c r="D55" s="44"/>
       <c r="E55" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" s="47" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I55" s="48"/>
       <c r="J55" s="47"/>
@@ -14827,16 +14818,16 @@
       <c r="C56" s="45"/>
       <c r="D56" s="44"/>
       <c r="E56" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G56" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H56" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I56" s="48"/>
       <c r="J56" s="47"/>
@@ -14851,16 +14842,16 @@
       <c r="C57" s="45"/>
       <c r="D57" s="44"/>
       <c r="E57" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G57" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I57" s="48"/>
       <c r="J57" s="47"/>
@@ -14875,16 +14866,16 @@
       <c r="C58" s="45"/>
       <c r="D58" s="44"/>
       <c r="E58" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I58" s="48"/>
       <c r="J58" s="47"/>
@@ -14899,20 +14890,20 @@
       <c r="C59" s="66"/>
       <c r="D59" s="65"/>
       <c r="E59" s="67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F59" s="68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H59" s="69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I59" s="70"/>
       <c r="J59" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="61" customFormat="1" ht="26.25" customHeight="1">
@@ -14925,16 +14916,16 @@
       <c r="C60" s="57"/>
       <c r="D60" s="56"/>
       <c r="E60" s="58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H60" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I60" s="60"/>
       <c r="J60" s="59"/>
@@ -14970,15 +14961,15 @@
     <row r="1" spans="1:3">
       <c r="A1" s="6"/>
       <c r="B1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="8">
         <f>SUMIF('Base User Story List'!D:D,2,'Base User Story List'!B:B)</f>
@@ -14991,7 +14982,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="8">
         <f>B2-SUMIF('Base User Story List'!C:C,"2-1",'Base User Story List'!B:B)</f>
@@ -15004,7 +14995,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="8">
         <f>B3-SUMIF('Base User Story List'!C:C,"2-2",'Base User Story List'!B:B)</f>
@@ -15017,7 +15008,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="8">
         <f>B4-SUMIF('Base User Story List'!C:C,"2-3",'Base User Story List'!B:B)</f>
@@ -15030,7 +15021,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -15042,7 +15033,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -15074,15 +15065,15 @@
     <row r="1" spans="1:3">
       <c r="A1" s="6"/>
       <c r="B1" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="40">
         <f>SUMIF('Base User Story List'!D:D,3,'Base User Story List'!B:B)</f>
@@ -15095,7 +15086,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="41">
         <f>B2-SUMIF('Base User Story List'!C:C,"3-1",'Base User Story List'!B:B)</f>
@@ -15108,7 +15099,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="41">
         <f>B3-SUMIF('Base User Story List'!C:C,"3-2",'Base User Story List'!B:B)</f>
@@ -15121,7 +15112,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="41">
         <f>B4-SUMIF('Base User Story List'!C:C,"3-3",'Base User Story List'!B:B)</f>
@@ -15134,7 +15125,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="41">
         <f>B5-SUMIF('Base User Story List'!C:C,"3-4",'Base User Story List'!B:B)</f>
@@ -15147,7 +15138,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="41">
         <f>B6-SUMIF('Base User Story List'!C:C,"3-5",'Base User Story List'!B:B)</f>
@@ -15160,7 +15151,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -15192,57 +15183,57 @@
     <row r="1" spans="1:3">
       <c r="A1" s="6"/>
       <c r="B1" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="40"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -15280,31 +15271,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" t="s">
-        <v>155</v>
-      </c>
       <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
-        <v>158</v>
-      </c>
       <c r="F1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" t="s">
         <v>161</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>162</v>
       </c>
-      <c r="H1" t="s">
-        <v>163</v>
-      </c>
       <c r="I1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -15318,7 +15309,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>72</v>
@@ -15344,7 +15335,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -15370,7 +15361,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5">
         <v>72</v>
@@ -15394,12 +15385,12 @@
         <v>9.722222222222221E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
       <c r="A6" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -15425,12 +15416,12 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -15443,27 +15434,27 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11">
         <v>115</v>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560"/>
+    <workbookView xWindow="-24080" yWindow="260" windowWidth="28720" windowHeight="17300"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="250">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -2179,6 +2179,10 @@
     <rPh sb="16" eb="18">
       <t>ケンサク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2959,11 +2963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144117784"/>
-        <c:axId val="-2144123304"/>
+        <c:axId val="2076766584"/>
+        <c:axId val="2076772072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144117784"/>
+        <c:axId val="2076766584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,12 +2995,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144123304"/>
+        <c:crossAx val="2076772072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144123304"/>
+        <c:axId val="2076772072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144117784"/>
+        <c:crossAx val="2076766584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3282,11 +3286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144210456"/>
-        <c:axId val="-2144215976"/>
+        <c:axId val="2076822120"/>
+        <c:axId val="2076827608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144210456"/>
+        <c:axId val="2076822120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,12 +3318,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144215976"/>
+        <c:crossAx val="2076827608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144215976"/>
+        <c:axId val="2076827608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,7 +3357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144210456"/>
+        <c:crossAx val="2076822120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3569,11 +3573,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144276728"/>
-        <c:axId val="-2144282248"/>
+        <c:axId val="2076887976"/>
+        <c:axId val="2076893464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144276728"/>
+        <c:axId val="2076887976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,12 +3605,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144282248"/>
+        <c:crossAx val="2076893464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144282248"/>
+        <c:axId val="2076893464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144276728"/>
+        <c:crossAx val="2076887976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3805,11 +3809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144336984"/>
-        <c:axId val="-2141799128"/>
+        <c:axId val="2076945848"/>
+        <c:axId val="2076951496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144336984"/>
+        <c:axId val="2076945848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3852,7 +3856,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141799128"/>
+        <c:crossAx val="2076951496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3860,7 +3864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141799128"/>
+        <c:axId val="2076951496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3915,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144336984"/>
+        <c:crossAx val="2076945848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5070,7 +5074,7 @@
   <dimension ref="A1:XFB60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -6212,7 +6216,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D39" s="50">
         <v>4</v>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24080" yWindow="260" windowWidth="28720" windowHeight="17300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="17300"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="251">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -822,25 +822,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションテーブルでいろいろな条件で検索する（後で詳細化）</t>
-    <rPh sb="15" eb="17">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1977,13 +1958,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポスターデータのダウンロードが出来る</t>
-    <rPh sb="15" eb="17">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>参加者</t>
     <rPh sb="0" eb="3">
       <t>サンカシャ</t>
@@ -2035,25 +2009,6 @@
     <t>以前：8p</t>
     <rPh sb="0" eb="2">
       <t>イゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以前:8p ビジネスルール定義時に詳細化</t>
-    <rPh sb="0" eb="2">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2183,6 +2138,60 @@
   </si>
   <si>
     <t>4-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表リストで検索する</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表データのダウンロードが出来る</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前:8p ビジネスルール定義時に詳細化
+要spike</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前：5p
+要spike</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2413,7 +2422,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2459,8 +2468,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2683,8 +2694,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -2707,6 +2721,7 @@
     <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -2730,6 +2745,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5073,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -5100,7 +5116,7 @@
     </row>
     <row r="2" spans="1:10" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>29</v>
@@ -5124,7 +5140,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="62" t="s">
         <v>64</v>
@@ -5138,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
@@ -5166,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -5194,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -5222,7 +5238,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -5250,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -5278,7 +5294,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -5306,7 +5322,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -5334,7 +5350,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -5362,26 +5378,26 @@
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5389,13 +5405,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>65</v>
@@ -5411,7 +5427,7 @@
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5422,10 +5438,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>28</v>
@@ -5441,7 +5457,7 @@
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5452,25 +5468,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="10">
         <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="I14" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" s="13"/>
     </row>
@@ -5482,7 +5498,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
@@ -5494,13 +5510,13 @@
         <v>69</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="13"/>
     </row>
@@ -5512,7 +5528,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="10">
         <v>2</v>
@@ -5524,13 +5540,13 @@
         <v>69</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J16" s="13"/>
     </row>
@@ -5542,25 +5558,25 @@
         <v>0.5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J17" s="13"/>
     </row>
@@ -5572,25 +5588,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="10">
         <v>2</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="G18" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J18" s="13"/>
     </row>
@@ -5602,25 +5618,25 @@
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J19" s="13"/>
     </row>
@@ -5632,25 +5648,25 @@
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="10">
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J20" s="13"/>
     </row>
@@ -5662,25 +5678,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="10">
         <v>2</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J21" s="13"/>
     </row>
@@ -5690,28 +5706,28 @@
         <v>0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="10">
         <v>2</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="I22" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5722,28 +5738,28 @@
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="10">
         <v>2</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="I23" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5754,28 +5770,28 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="10">
         <v>2</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1">
@@ -5786,7 +5802,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="34">
         <v>2</v>
@@ -5798,16 +5814,16 @@
         <v>69</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5818,7 +5834,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -5830,16 +5846,16 @@
         <v>39</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J26" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1">
@@ -5850,7 +5866,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" s="34">
         <v>3</v>
@@ -5862,16 +5878,16 @@
         <v>69</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J27" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5882,7 +5898,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D28" s="10">
         <v>3</v>
@@ -5894,16 +5910,16 @@
         <v>39</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J28" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5912,25 +5928,25 @@
         <v>8</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D29" s="10">
         <v>3</v>
       </c>
       <c r="E29" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>195</v>
-      </c>
       <c r="I29" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J29" s="63"/>
     </row>
@@ -5940,28 +5956,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D30" s="10">
         <v>3</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F30" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="I30" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" s="37" t="s">
         <v>200</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -5970,28 +5986,28 @@
         <v>3</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D31" s="10">
         <v>3</v>
       </c>
       <c r="E31" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="I31" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -6000,28 +6016,28 @@
         <v>3</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D32" s="10">
         <v>3</v>
       </c>
       <c r="E32" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="I32" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -6032,7 +6048,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D33" s="10">
         <v>3</v>
@@ -6044,16 +6060,16 @@
         <v>35</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -6064,7 +6080,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D34" s="10">
         <v>3</v>
@@ -6076,16 +6092,16 @@
         <v>36</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
@@ -6096,25 +6112,25 @@
         <v>3</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="10">
         <v>3</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="I35" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J35" s="13"/>
     </row>
@@ -6124,28 +6140,28 @@
         <v>3</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D36" s="10">
         <v>4</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>247</v>
-      </c>
       <c r="J36" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6156,7 +6172,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D37" s="50">
         <v>4</v>
@@ -6175,7 +6191,7 @@
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6186,7 +6202,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D38" s="50">
         <v>4</v>
@@ -6198,14 +6214,14 @@
         <v>45</v>
       </c>
       <c r="G38" s="53" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H38" s="52" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6216,7 +6232,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D39" s="50">
         <v>4</v>
@@ -6225,22 +6241,22 @@
         <v>28</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G39" s="53" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H39" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="54"/>
-      <c r="J39" s="50" t="s">
-        <v>231</v>
+      <c r="J39" s="78" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A40" s="50">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B40" s="50">
         <v>5</v>
@@ -6253,17 +6269,17 @@
         <v>28</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="G40" s="53" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I40" s="54"/>
-      <c r="J40" s="50" t="s">
-        <v>231</v>
+      <c r="J40" s="78" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6281,22 +6297,22 @@
         <v>28</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="G41" s="53" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="H41" s="52" t="s">
         <v>18</v>
       </c>
       <c r="I41" s="54"/>
-      <c r="J41" s="50" t="s">
-        <v>231</v>
+      <c r="J41" s="78" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A42" s="50">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B42" s="50">
         <v>5</v>
@@ -6309,17 +6325,17 @@
         <v>28</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="G42" s="53" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="H42" s="52" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="50" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6340,14 +6356,14 @@
         <v>45</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="H43" s="52" t="s">
         <v>20</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
@@ -6360,13 +6376,13 @@
         <v>4</v>
       </c>
       <c r="E44" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="53" t="s">
         <v>223</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>225</v>
       </c>
       <c r="H44" s="52"/>
       <c r="I44" s="54"/>
@@ -6378,10 +6394,10 @@
       <c r="C45" s="73"/>
       <c r="D45" s="72"/>
       <c r="E45" s="74" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G45" s="75"/>
       <c r="H45" s="74"/>
@@ -6457,7 +6473,7 @@
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L48" s="2"/>
       <c r="N48" s="5"/>
@@ -14678,20 +14694,20 @@
       <c r="C50" s="45"/>
       <c r="D50" s="44"/>
       <c r="E50" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F50" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="G50" s="47" t="s">
-        <v>197</v>
-      </c>
       <c r="H50" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I50" s="48"/>
       <c r="J50" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
@@ -14700,20 +14716,20 @@
       <c r="C51" s="45"/>
       <c r="D51" s="44"/>
       <c r="E51" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="F51" s="47" t="s">
+      <c r="G51" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="H51" s="46" t="s">
         <v>183</v>
-      </c>
-      <c r="H51" s="46" t="s">
-        <v>184</v>
       </c>
       <c r="I51" s="48"/>
       <c r="J51" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
@@ -14726,20 +14742,20 @@
       <c r="C52" s="45"/>
       <c r="D52" s="44"/>
       <c r="E52" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F52" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="47" t="s">
-        <v>99</v>
-      </c>
       <c r="H52" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I52" s="48"/>
       <c r="J52" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
@@ -14900,14 +14916,14 @@
         <v>38</v>
       </c>
       <c r="G59" s="68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H59" s="69" t="s">
         <v>21</v>
       </c>
       <c r="I59" s="70"/>
       <c r="J59" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="61" customFormat="1" ht="26.25" customHeight="1">
@@ -14965,15 +14981,15 @@
     <row r="1" spans="1:3">
       <c r="A1" s="6"/>
       <c r="B1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8">
         <f>SUMIF('Base User Story List'!D:D,2,'Base User Story List'!B:B)</f>
@@ -14986,7 +15002,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="8">
         <f>B2-SUMIF('Base User Story List'!C:C,"2-1",'Base User Story List'!B:B)</f>
@@ -14999,7 +15015,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="8">
         <f>B3-SUMIF('Base User Story List'!C:C,"2-2",'Base User Story List'!B:B)</f>
@@ -15012,7 +15028,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="8">
         <f>B4-SUMIF('Base User Story List'!C:C,"2-3",'Base User Story List'!B:B)</f>
@@ -15025,7 +15041,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -15037,7 +15053,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -15069,15 +15085,15 @@
     <row r="1" spans="1:3">
       <c r="A1" s="6"/>
       <c r="B1" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="40">
         <f>SUMIF('Base User Story List'!D:D,3,'Base User Story List'!B:B)</f>
@@ -15090,7 +15106,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="41">
         <f>B2-SUMIF('Base User Story List'!C:C,"3-1",'Base User Story List'!B:B)</f>
@@ -15103,7 +15119,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="41">
         <f>B3-SUMIF('Base User Story List'!C:C,"3-2",'Base User Story List'!B:B)</f>
@@ -15116,7 +15132,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="41">
         <f>B4-SUMIF('Base User Story List'!C:C,"3-3",'Base User Story List'!B:B)</f>
@@ -15129,7 +15145,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="41">
         <f>B5-SUMIF('Base User Story List'!C:C,"3-4",'Base User Story List'!B:B)</f>
@@ -15142,7 +15158,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="41">
         <f>B6-SUMIF('Base User Story List'!C:C,"3-5",'Base User Story List'!B:B)</f>
@@ -15155,7 +15171,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -15187,57 +15203,57 @@
     <row r="1" spans="1:3">
       <c r="A1" s="6"/>
       <c r="B1" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="40"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -15275,31 +15291,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
-        <v>154</v>
-      </c>
       <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" t="s">
-        <v>157</v>
-      </c>
       <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>161</v>
       </c>
-      <c r="H1" t="s">
-        <v>162</v>
-      </c>
       <c r="I1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -15313,7 +15329,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>72</v>
@@ -15339,7 +15355,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -15365,7 +15381,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5">
         <v>72</v>
@@ -15389,12 +15405,12 @@
         <v>9.722222222222221E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
       <c r="A6" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -15420,12 +15436,12 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -15438,27 +15454,27 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11">
         <v>115</v>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="17300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="17295"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="BDC4" sheetId="6" r:id="rId4"/>
     <sheet name="Velocity" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="253">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -2193,6 +2193,13 @@
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-3</t>
   </si>
 </sst>
 </file>
@@ -2338,7 +2345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2366,6 +2373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2471,7 +2484,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2697,6 +2710,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -2830,7 +2861,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2871,13 +2901,13 @@
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2916,7 +2946,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2957,13 +2986,13 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2979,11 +3008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076766584"/>
-        <c:axId val="2076772072"/>
+        <c:axId val="267811496"/>
+        <c:axId val="267810712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076766584"/>
+        <c:axId val="267811496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,12 +3040,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076772072"/>
+        <c:crossAx val="267810712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076772072"/>
+        <c:axId val="267810712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3050,7 +3079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076766584"/>
+        <c:crossAx val="267811496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3141,7 +3170,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3179,22 +3207,22 @@
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,7 +3261,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3271,22 +3298,22 @@
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3302,11 +3329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076822120"/>
-        <c:axId val="2076827608"/>
+        <c:axId val="267813456"/>
+        <c:axId val="267810320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076822120"/>
+        <c:axId val="267813456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,12 +3361,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076827608"/>
+        <c:crossAx val="267810320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076827608"/>
+        <c:axId val="267810320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,7 +3400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076822120"/>
+        <c:crossAx val="267813456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3464,7 +3491,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3538,7 +3564,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3589,11 +3614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2076887976"/>
-        <c:axId val="2076893464"/>
+        <c:axId val="269932944"/>
+        <c:axId val="269934120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2076887976"/>
+        <c:axId val="269932944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,12 +3646,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076893464"/>
+        <c:crossAx val="269934120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076893464"/>
+        <c:axId val="269934120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3660,7 +3685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2076887976"/>
+        <c:crossAx val="269932944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3796,16 +3821,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.232558139534884</c:v>
+                  <c:v>0.23255813953488372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.152777777777778</c:v>
+                  <c:v>0.15277777777777776</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0972222222222222</c:v>
+                  <c:v>9.722222222222221E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
@@ -3825,11 +3850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2076945848"/>
-        <c:axId val="2076951496"/>
+        <c:axId val="269937648"/>
+        <c:axId val="269938432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2076945848"/>
+        <c:axId val="269937648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3872,7 +3897,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076951496"/>
+        <c:crossAx val="269938432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3880,7 +3905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2076951496"/>
+        <c:axId val="269938432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3931,7 +3956,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076945848"/>
+        <c:crossAx val="269937648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5089,32 +5114,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="44.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="7"/>
-    <col min="10" max="10" width="58.83203125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="6.1640625" style="3"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="44.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="7"/>
+    <col min="10" max="10" width="58.875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="6.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" customHeight="1">
+    <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>157</v>
       </c>
@@ -5146,7 +5171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
+    <row r="3" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -5174,7 +5199,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2.1</v>
       </c>
@@ -5202,7 +5227,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -5230,7 +5255,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>2.31</v>
       </c>
@@ -5258,7 +5283,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
+    <row r="7" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>2.3199999999999998</v>
       </c>
@@ -5286,7 +5311,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
+    <row r="8" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>2.33</v>
       </c>
@@ -5314,7 +5339,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
+    <row r="9" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>2.4</v>
       </c>
@@ -5342,7 +5367,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="10" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -5370,7 +5395,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" s="39" customFormat="1" ht="34.5" customHeight="1">
+    <row r="11" spans="1:10" s="39" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>4</v>
       </c>
@@ -5400,7 +5425,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="12" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>5</v>
       </c>
@@ -5430,7 +5455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="13" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>6</v>
       </c>
@@ -5460,7 +5485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="14" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>7</v>
       </c>
@@ -5490,7 +5515,7 @@
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="15" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>8</v>
       </c>
@@ -5520,7 +5545,7 @@
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="16" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>9</v>
       </c>
@@ -5550,7 +5575,7 @@
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="17" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>11</v>
       </c>
@@ -5580,7 +5605,7 @@
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="18" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>12</v>
       </c>
@@ -5610,7 +5635,7 @@
       </c>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="19" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>13</v>
       </c>
@@ -5640,7 +5665,7 @@
       </c>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="20" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>14</v>
       </c>
@@ -5670,7 +5695,7 @@
       </c>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="21" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>15</v>
       </c>
@@ -5700,7 +5725,7 @@
       </c>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" s="39" customFormat="1" ht="73.5" customHeight="1">
+    <row r="22" spans="1:10" s="39" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10">
         <v>0</v>
@@ -5730,7 +5755,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="23" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>17</v>
       </c>
@@ -5762,7 +5787,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="24" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>16</v>
       </c>
@@ -5794,7 +5819,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="25" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>10</v>
       </c>
@@ -5826,7 +5851,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="26" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>20</v>
       </c>
@@ -5858,7 +5883,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="27" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>10</v>
       </c>
@@ -5890,7 +5915,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="28" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>20</v>
       </c>
@@ -5922,7 +5947,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="29" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10">
         <v>8</v>
@@ -5950,7 +5975,7 @@
       </c>
       <c r="J29" s="63"/>
     </row>
-    <row r="30" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="30" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10">
         <v>2</v>
@@ -5980,7 +6005,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="31" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10">
         <v>3</v>
@@ -6010,7 +6035,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="32" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10">
         <v>3</v>
@@ -6040,7 +6065,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="33" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -6072,7 +6097,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="34" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
         <v>18</v>
       </c>
@@ -6104,7 +6129,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="35" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
         <v>19</v>
       </c>
@@ -6134,7 +6159,7 @@
       </c>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
+    <row r="36" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10">
         <v>3</v>
@@ -6164,7 +6189,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
+    <row r="37" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="50">
         <v>21</v>
       </c>
@@ -6172,7 +6197,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D37" s="50">
         <v>4</v>
@@ -6194,37 +6219,37 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A38" s="50">
+    <row r="38" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="84" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="79">
         <v>33</v>
       </c>
-      <c r="B38" s="50">
+      <c r="B38" s="79">
         <v>3</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="79">
         <v>4</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="F38" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="53" t="s">
+      <c r="G38" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="54"/>
-      <c r="J38" s="50" t="s">
+      <c r="I38" s="83"/>
+      <c r="J38" s="79" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
+    <row r="39" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="50">
         <v>29</v>
       </c>
@@ -6254,14 +6279,16 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
+    <row r="40" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="50">
         <v>25</v>
       </c>
       <c r="B40" s="50">
         <v>5</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="51" t="s">
+        <v>252</v>
+      </c>
       <c r="D40" s="50">
         <v>4</v>
       </c>
@@ -6282,7 +6309,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
+    <row r="41" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="50">
         <v>29</v>
       </c>
@@ -6310,7 +6337,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
+    <row r="42" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="50">
         <v>29</v>
       </c>
@@ -6338,7 +6365,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
+    <row r="43" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="50">
         <v>34</v>
       </c>
@@ -6366,7 +6393,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
+    <row r="44" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="50"/>
       <c r="B44" s="50">
         <v>2</v>
@@ -6388,7 +6415,7 @@
       <c r="I44" s="54"/>
       <c r="J44" s="53"/>
     </row>
-    <row r="45" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="77" customFormat="1" ht="26.25" customHeight="1">
+    <row r="45" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="77" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="72"/>
       <c r="B45" s="72"/>
       <c r="C45" s="73"/>
@@ -6404,7 +6431,7 @@
       <c r="I45" s="76"/>
       <c r="J45" s="75"/>
     </row>
-    <row r="46" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
+    <row r="46" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="15">
         <v>22</v>
       </c>
@@ -6428,7 +6455,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="18"/>
     </row>
-    <row r="47" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
+    <row r="47" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15">
         <v>39</v>
       </c>
@@ -6450,7 +6477,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
+    <row r="48" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="15">
         <v>36</v>
       </c>
@@ -14662,7 +14689,7 @@
       <c r="XEZ48" s="2"/>
       <c r="XFB48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="26.25" customHeight="1">
+    <row r="49" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="15">
         <v>37</v>
       </c>
@@ -14686,7 +14713,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="18"/>
     </row>
-    <row r="50" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
+    <row r="50" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="44"/>
       <c r="B50" s="44">
         <v>5</v>
@@ -14710,7 +14737,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
+    <row r="51" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="45"/>
@@ -14732,7 +14759,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
+    <row r="52" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="44">
         <v>23</v>
       </c>
@@ -14758,7 +14785,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
+    <row r="53" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="44">
         <v>38</v>
       </c>
@@ -14780,7 +14807,7 @@
       <c r="I53" s="48"/>
       <c r="J53" s="47"/>
     </row>
-    <row r="54" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
+    <row r="54" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="44">
         <v>26</v>
       </c>
@@ -14804,7 +14831,7 @@
       <c r="I54" s="48"/>
       <c r="J54" s="47"/>
     </row>
-    <row r="55" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
+    <row r="55" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="44">
         <v>27</v>
       </c>
@@ -14828,7 +14855,7 @@
       <c r="I55" s="48"/>
       <c r="J55" s="47"/>
     </row>
-    <row r="56" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
+    <row r="56" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="44">
         <v>31</v>
       </c>
@@ -14852,7 +14879,7 @@
       <c r="I56" s="48"/>
       <c r="J56" s="47"/>
     </row>
-    <row r="57" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
+    <row r="57" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="44">
         <v>32</v>
       </c>
@@ -14876,7 +14903,7 @@
       <c r="I57" s="48"/>
       <c r="J57" s="47"/>
     </row>
-    <row r="58" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
+    <row r="58" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="44">
         <v>35</v>
       </c>
@@ -14900,7 +14927,7 @@
       <c r="I58" s="48"/>
       <c r="J58" s="47"/>
     </row>
-    <row r="59" spans="1:10" s="71" customFormat="1" ht="26.25" customHeight="1">
+    <row r="59" spans="1:10" s="71" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="65">
         <v>24</v>
       </c>
@@ -14926,7 +14953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="61" customFormat="1" ht="26.25" customHeight="1">
+    <row r="60" spans="1:10" s="61" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="56">
         <v>28</v>
       </c>
@@ -14973,12 +15000,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="8.83203125" style="9"/>
+    <col min="2" max="3" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="8" t="s">
         <v>101</v>
@@ -14987,7 +15014,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>103</v>
       </c>
@@ -15000,7 +15027,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>104</v>
       </c>
@@ -15013,7 +15040,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>105</v>
       </c>
@@ -15026,7 +15053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
@@ -15039,7 +15066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>147</v>
       </c>
@@ -15051,7 +15078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
         <v>107</v>
       </c>
@@ -15077,12 +15104,12 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="8.83203125" style="42"/>
+    <col min="2" max="3" width="8.875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="40" t="s">
         <v>101</v>
@@ -15091,7 +15118,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>103</v>
       </c>
@@ -15104,7 +15131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>104</v>
       </c>
@@ -15117,7 +15144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>105</v>
       </c>
@@ -15130,7 +15157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
@@ -15143,7 +15170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>147</v>
       </c>
@@ -15156,7 +15183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>215</v>
       </c>
@@ -15169,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="42" t="s">
         <v>107</v>
       </c>
@@ -15195,12 +15222,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="8.83203125" style="42"/>
+    <col min="2" max="3" width="8.875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="40" t="s">
         <v>101</v>
@@ -15209,49 +15236,49 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>215</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="40"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="42" t="s">
         <v>107</v>
       </c>
@@ -15277,19 +15304,19 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="5" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>138</v>
       </c>
@@ -15318,7 +15345,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G2">
         <v>4.3</v>
       </c>
@@ -15327,7 +15354,7 @@
         <v>0.23255813953488372</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>149</v>
       </c>
@@ -15353,7 +15380,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>150</v>
       </c>
@@ -15379,7 +15406,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>139</v>
       </c>
@@ -15408,7 +15435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>162</v>
       </c>
@@ -15439,7 +15466,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>177</v>
       </c>
@@ -15457,22 +15484,22 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>214</v>
       </c>
@@ -15489,9 +15516,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="17295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="17295" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="255">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -2200,6 +2200,14 @@
   </si>
   <si>
     <t>4-3</t>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprint0</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2345,7 +2353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2376,14 +2384,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2432,6 +2434,28 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2710,23 +2734,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -3008,11 +3028,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267811496"/>
-        <c:axId val="267810712"/>
+        <c:axId val="125498312"/>
+        <c:axId val="125497136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267811496"/>
+        <c:axId val="125498312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,12 +3060,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267810712"/>
+        <c:crossAx val="125497136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267810712"/>
+        <c:axId val="125497136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3079,7 +3099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267811496"/>
+        <c:crossAx val="125498312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3130,6 +3150,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3170,6 +3191,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3261,6 +3283,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3329,11 +3352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267813456"/>
-        <c:axId val="267810320"/>
+        <c:axId val="125497528"/>
+        <c:axId val="125497920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267813456"/>
+        <c:axId val="125497528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3355,18 +3378,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267810320"/>
+        <c:crossAx val="125497920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267810320"/>
+        <c:axId val="125497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3394,19 +3418,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267813456"/>
+        <c:crossAx val="125497528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3451,6 +3477,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3491,32 +3518,33 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>'BDC4'!$A$2:$A$7</c:f>
+              <c:f>'BDC4'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Sprint0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Sprint1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Sprint2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sprint3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Sprint4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sprint5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3525,8 +3553,26 @@
             <c:numRef>
               <c:f>'BDC4'!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>@</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="@">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="@">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3564,32 +3610,33 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>'BDC4'!$A$2:$A$7</c:f>
+              <c:f>'BDC4'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Sprint0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Sprint1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Sprint2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sprint3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Sprint4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sprint5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3598,8 +3645,17 @@
             <c:numRef>
               <c:f>'BDC4'!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>@</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="@">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3614,11 +3670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269932944"/>
-        <c:axId val="269934120"/>
+        <c:axId val="273761552"/>
+        <c:axId val="273760768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269932944"/>
+        <c:axId val="273761552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,18 +3696,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269934120"/>
+        <c:crossAx val="273760768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269934120"/>
+        <c:axId val="273760768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3679,19 +3736,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269932944"/>
+        <c:crossAx val="273761552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3850,11 +3909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="269937648"/>
-        <c:axId val="269938432"/>
+        <c:axId val="273759984"/>
+        <c:axId val="273761160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="269937648"/>
+        <c:axId val="273759984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,7 +3956,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269938432"/>
+        <c:crossAx val="273761160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3905,7 +3964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269938432"/>
+        <c:axId val="273761160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,7 +4015,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269937648"/>
+        <c:crossAx val="273759984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4868,7 +4927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4903,7 +4962,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5114,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6189,64 +6248,66 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="50">
+    <row r="37" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10">
+        <v>33</v>
+      </c>
+      <c r="B37" s="10">
+        <v>3</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="10">
+        <v>4</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="50">
         <v>21</v>
       </c>
-      <c r="B37" s="50">
+      <c r="B38" s="50">
         <v>2</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C38" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D38" s="50">
         <v>4</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E38" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F38" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="53" t="s">
+      <c r="G38" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="H38" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="54"/>
-      <c r="J37" s="50" t="s">
+      <c r="I38" s="54"/>
+      <c r="J38" s="50" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="84" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="79">
-        <v>33</v>
-      </c>
-      <c r="B38" s="79">
-        <v>3</v>
-      </c>
-      <c r="C38" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" s="79">
-        <v>4</v>
-      </c>
-      <c r="E38" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="82" t="s">
-        <v>245</v>
-      </c>
-      <c r="H38" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="83"/>
-      <c r="J38" s="79" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14983,7 +15044,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15101,7 +15162,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15218,17 +15279,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="8.875" style="42"/>
+    <col min="1" max="1" width="8.875" style="9"/>
+    <col min="2" max="2" width="8.875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="42"/>
+    <col min="4" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="40" t="s">
         <v>101</v>
       </c>
@@ -15237,46 +15301,78 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="40">
+        <f>SUMIF('Base User Story List'!D:D,4,'Base User Story List'!B:B)</f>
+        <v>36</v>
+      </c>
+      <c r="C2" s="40">
+        <f>SUMIF('Base User Story List'!D:D,4,'Base User Story List'!B:B)</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="40">
+        <f>B2-SUMIF('Base User Story List'!C:C,"4-0",'Base User Story List'!B:B)</f>
+        <v>33</v>
+      </c>
+      <c r="C3" s="40">
+        <f>C2-SUMIF('Base User Story List'!I:I,"4-0",'Base User Story List'!B:B)</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="40">
+        <f>B3-SUMIF('Base User Story List'!C:C,"4-1",'Base User Story List'!B:B)</f>
+        <v>28</v>
+      </c>
+      <c r="C4" s="41">
+        <f>C3-SUMIF('Base User Story List'!I:I,"4-1",'Base User Story List'!B:B)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="A5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="40">
+        <f>B4-SUMIF('Base User Story List'!C:C,"4-2",'Base User Story List'!B:B)</f>
+        <v>20</v>
+      </c>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="41">
+        <f>B5-SUMIF('Base User Story List'!C:C,"4-3",'Base User Story List'!B:B)</f>
+        <v>15</v>
+      </c>
+      <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="80">
+        <f>B6-SUMIF('Base User Story List'!C:C,"4-4",'Base User Story List'!B:B)</f>
+        <v>15</v>
+      </c>
+      <c r="C7" s="81"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="42" t="s">

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="17295" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="BDC4" sheetId="6" r:id="rId4"/>
     <sheet name="Velocity" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="259">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -2161,29 +2161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以前:8p ビジネスルール定義時に詳細化
-要spike</t>
-    <rPh sb="0" eb="2">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以前：5p
 要spike</t>
     <rPh sb="0" eb="2">
@@ -2199,14 +2176,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprint0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前：5p
+spikeで8→5</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前:8p ビジネスルール定義時に詳細化
+spikeで5→3</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>4-3</t>
-  </si>
-  <si>
-    <t>4-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sprint0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2453,7 +2471,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2921,13 +2939,13 @@
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3006,13 +3024,13 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,11 +3046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125498312"/>
-        <c:axId val="125497136"/>
+        <c:axId val="-2141861288"/>
+        <c:axId val="-2141866808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125498312"/>
+        <c:axId val="-2141861288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,12 +3078,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125497136"/>
+        <c:crossAx val="-2141866808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125497136"/>
+        <c:axId val="-2141866808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +3117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125498312"/>
+        <c:crossAx val="-2141861288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3229,22 +3247,22 @@
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3321,22 +3339,22 @@
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3352,11 +3370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125497528"/>
-        <c:axId val="125497920"/>
+        <c:axId val="-2141917560"/>
+        <c:axId val="-2141923080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125497528"/>
+        <c:axId val="-2141917560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,12 +3403,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125497920"/>
+        <c:crossAx val="-2141923080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125497920"/>
+        <c:axId val="-2141923080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,7 +3443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125497528"/>
+        <c:crossAx val="-2141917560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3556,22 +3574,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="@">
-                  <c:v>15</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="@">
-                  <c:v>15</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3648,13 +3666,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="@">
-                  <c:v>30</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3670,11 +3688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="273761552"/>
-        <c:axId val="273760768"/>
+        <c:axId val="-2141981080"/>
+        <c:axId val="-2141986600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="273761552"/>
+        <c:axId val="-2141981080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,12 +3721,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="273760768"/>
+        <c:crossAx val="-2141986600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="273760768"/>
+        <c:axId val="-2141986600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3743,7 +3761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="273761552"/>
+        <c:crossAx val="-2141981080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3780,6 +3798,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3880,16 +3899,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.23255813953488372</c:v>
+                  <c:v>0.232558139534884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15277777777777776</c:v>
+                  <c:v>0.152777777777778</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.722222222222221E-2</c:v>
+                  <c:v>0.0972222222222222</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
@@ -3909,11 +3928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="273759984"/>
-        <c:axId val="273761160"/>
+        <c:axId val="-2142040968"/>
+        <c:axId val="-2142044280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273759984"/>
+        <c:axId val="-2142040968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,7 +3975,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273761160"/>
+        <c:crossAx val="-2142044280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3964,7 +3983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273761160"/>
+        <c:axId val="-2142044280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4034,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273759984"/>
+        <c:crossAx val="-2142040968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4853,16 +4872,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1597025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4927,7 +4946,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4962,7 +4981,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5173,32 +5192,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="44.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.125" style="7"/>
-    <col min="10" max="10" width="58.875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="6.125" style="3"/>
+    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="44.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="7"/>
+    <col min="10" max="10" width="58.83203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="6.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="26.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="30" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
       <c r="A2" s="27" t="s">
         <v>157</v>
       </c>
@@ -5230,7 +5249,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" thickTop="1">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -5258,7 +5277,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
       <c r="A4" s="10">
         <v>2.1</v>
       </c>
@@ -5286,7 +5305,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
       <c r="A5" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -5314,7 +5333,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
       <c r="A6" s="10">
         <v>2.31</v>
       </c>
@@ -5342,7 +5361,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.3199999999999998</v>
       </c>
@@ -5370,7 +5389,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
       <c r="A8" s="10">
         <v>2.33</v>
       </c>
@@ -5398,7 +5417,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="39" customFormat="1" ht="36.75" customHeight="1">
       <c r="A9" s="10">
         <v>2.4</v>
       </c>
@@ -5426,7 +5445,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -5454,7 +5473,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" s="39" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="39" customFormat="1" ht="34.5" customHeight="1">
       <c r="A11" s="10">
         <v>4</v>
       </c>
@@ -5484,7 +5503,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A12" s="10">
         <v>5</v>
       </c>
@@ -5514,7 +5533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A13" s="10">
         <v>6</v>
       </c>
@@ -5544,7 +5563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A14" s="10">
         <v>7</v>
       </c>
@@ -5574,7 +5593,7 @@
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A15" s="10">
         <v>8</v>
       </c>
@@ -5604,7 +5623,7 @@
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A16" s="10">
         <v>9</v>
       </c>
@@ -5634,7 +5653,7 @@
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A17" s="10">
         <v>11</v>
       </c>
@@ -5664,7 +5683,7 @@
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A18" s="10">
         <v>12</v>
       </c>
@@ -5694,7 +5713,7 @@
       </c>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A19" s="10">
         <v>13</v>
       </c>
@@ -5724,7 +5743,7 @@
       </c>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A20" s="10">
         <v>14</v>
       </c>
@@ -5754,7 +5773,7 @@
       </c>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A21" s="10">
         <v>15</v>
       </c>
@@ -5784,7 +5803,7 @@
       </c>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" s="39" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="39" customFormat="1" ht="73.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10">
         <v>0</v>
@@ -5814,7 +5833,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A23" s="10">
         <v>17</v>
       </c>
@@ -5846,7 +5865,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A24" s="10">
         <v>16</v>
       </c>
@@ -5878,7 +5897,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A25" s="10">
         <v>10</v>
       </c>
@@ -5910,7 +5929,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A26" s="10">
         <v>20</v>
       </c>
@@ -5942,7 +5961,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A27" s="10">
         <v>10</v>
       </c>
@@ -5974,7 +5993,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A28" s="10">
         <v>20</v>
       </c>
@@ -6006,7 +6025,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10">
         <v>8</v>
@@ -6034,7 +6053,7 @@
       </c>
       <c r="J29" s="63"/>
     </row>
-    <row r="30" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10">
         <v>2</v>
@@ -6064,7 +6083,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10">
         <v>3</v>
@@ -6094,7 +6113,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10">
         <v>3</v>
@@ -6124,7 +6143,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -6156,7 +6175,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A34" s="10">
         <v>18</v>
       </c>
@@ -6188,7 +6207,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A35" s="10">
         <v>19</v>
       </c>
@@ -6218,7 +6237,7 @@
       </c>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10">
         <v>3</v>
@@ -6248,7 +6267,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="39" customFormat="1" ht="26.25" customHeight="1">
       <c r="A37" s="10">
         <v>33</v>
       </c>
@@ -6274,13 +6293,13 @@
         <v>20</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A38" s="50">
         <v>21</v>
       </c>
@@ -6288,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D38" s="50">
         <v>4</v>
@@ -6310,12 +6329,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A39" s="50">
         <v>29</v>
       </c>
       <c r="B39" s="50">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>246</v>
@@ -6337,18 +6356,18 @@
       </c>
       <c r="I39" s="54"/>
       <c r="J39" s="78" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A40" s="50">
         <v>25</v>
       </c>
       <c r="B40" s="50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D40" s="50">
         <v>4</v>
@@ -6367,17 +6386,19 @@
       </c>
       <c r="I40" s="54"/>
       <c r="J40" s="78" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A41" s="50">
         <v>29</v>
       </c>
       <c r="B41" s="50">
         <v>5</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="51" t="s">
+        <v>256</v>
+      </c>
       <c r="D41" s="50">
         <v>4</v>
       </c>
@@ -6395,17 +6416,19 @@
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A42" s="50">
         <v>29</v>
       </c>
       <c r="B42" s="50">
         <v>5</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="51" t="s">
+        <v>257</v>
+      </c>
       <c r="D42" s="50">
         <v>4</v>
       </c>
@@ -6426,14 +6449,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A43" s="50">
         <v>34</v>
       </c>
       <c r="B43" s="50">
         <v>3</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="51" t="s">
+        <v>257</v>
+      </c>
       <c r="D43" s="50">
         <v>4</v>
       </c>
@@ -6454,12 +6479,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A44" s="50"/>
       <c r="B44" s="50">
         <v>2</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="51" t="s">
+        <v>258</v>
+      </c>
       <c r="D44" s="50">
         <v>4</v>
       </c>
@@ -6476,7 +6503,7 @@
       <c r="I44" s="54"/>
       <c r="J44" s="53"/>
     </row>
-    <row r="45" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="77" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="77" customFormat="1" ht="26.25" customHeight="1">
       <c r="A45" s="72"/>
       <c r="B45" s="72"/>
       <c r="C45" s="73"/>
@@ -6492,7 +6519,7 @@
       <c r="I45" s="76"/>
       <c r="J45" s="75"/>
     </row>
-    <row r="46" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
       <c r="A46" s="15">
         <v>22</v>
       </c>
@@ -6516,7 +6543,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="18"/>
     </row>
-    <row r="47" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
       <c r="A47" s="15">
         <v>39</v>
       </c>
@@ -6538,7 +6565,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" ht="26.25" customHeight="1">
       <c r="A48" s="15">
         <v>36</v>
       </c>
@@ -14750,7 +14777,7 @@
       <c r="XEZ48" s="2"/>
       <c r="XFB48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="26.25" customHeight="1">
       <c r="A49" s="15">
         <v>37</v>
       </c>
@@ -14774,7 +14801,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="18"/>
     </row>
-    <row r="50" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
       <c r="A50" s="44"/>
       <c r="B50" s="44">
         <v>5</v>
@@ -14798,7 +14825,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="45"/>
@@ -14820,7 +14847,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
       <c r="A52" s="44">
         <v>23</v>
       </c>
@@ -14846,7 +14873,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
       <c r="A53" s="44">
         <v>38</v>
       </c>
@@ -14868,7 +14895,7 @@
       <c r="I53" s="48"/>
       <c r="J53" s="47"/>
     </row>
-    <row r="54" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
       <c r="A54" s="44">
         <v>26</v>
       </c>
@@ -14892,7 +14919,7 @@
       <c r="I54" s="48"/>
       <c r="J54" s="47"/>
     </row>
-    <row r="55" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
       <c r="A55" s="44">
         <v>27</v>
       </c>
@@ -14916,7 +14943,7 @@
       <c r="I55" s="48"/>
       <c r="J55" s="47"/>
     </row>
-    <row r="56" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
       <c r="A56" s="44">
         <v>31</v>
       </c>
@@ -14940,7 +14967,7 @@
       <c r="I56" s="48"/>
       <c r="J56" s="47"/>
     </row>
-    <row r="57" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
       <c r="A57" s="44">
         <v>32</v>
       </c>
@@ -14964,7 +14991,7 @@
       <c r="I57" s="48"/>
       <c r="J57" s="47"/>
     </row>
-    <row r="58" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" s="49" customFormat="1" ht="26.25" customHeight="1">
       <c r="A58" s="44">
         <v>35</v>
       </c>
@@ -14988,7 +15015,7 @@
       <c r="I58" s="48"/>
       <c r="J58" s="47"/>
     </row>
-    <row r="59" spans="1:10" s="71" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" s="71" customFormat="1" ht="26.25" customHeight="1">
       <c r="A59" s="65">
         <v>24</v>
       </c>
@@ -15014,7 +15041,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="61" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" s="61" customFormat="1" ht="26.25" customHeight="1">
       <c r="A60" s="56">
         <v>28</v>
       </c>
@@ -15044,7 +15071,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15061,12 +15088,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="8.875" style="9"/>
+    <col min="2" max="3" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="6"/>
       <c r="B1" s="8" t="s">
         <v>101</v>
@@ -15075,7 +15102,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>103</v>
       </c>
@@ -15088,7 +15115,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>104</v>
       </c>
@@ -15101,7 +15128,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>105</v>
       </c>
@@ -15114,7 +15141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
@@ -15127,7 +15154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
         <v>147</v>
       </c>
@@ -15139,7 +15166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="9" t="s">
         <v>107</v>
       </c>
@@ -15165,12 +15192,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="8.875" style="42"/>
+    <col min="2" max="3" width="8.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="6"/>
       <c r="B1" s="40" t="s">
         <v>101</v>
@@ -15179,7 +15206,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>103</v>
       </c>
@@ -15192,7 +15219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>104</v>
       </c>
@@ -15205,7 +15232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>105</v>
       </c>
@@ -15218,7 +15245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
@@ -15231,7 +15258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
         <v>147</v>
       </c>
@@ -15244,7 +15271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
         <v>215</v>
       </c>
@@ -15257,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="42" t="s">
         <v>107</v>
       </c>
@@ -15279,19 +15306,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="9"/>
-    <col min="2" max="2" width="8.875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="42"/>
-    <col min="4" max="16384" width="8.875" style="9"/>
+    <col min="1" max="1" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="8.83203125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="42"/>
+    <col min="4" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="8"/>
       <c r="B1" s="40" t="s">
         <v>101</v>
@@ -15300,81 +15327,81 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="40">
         <f>SUMIF('Base User Story List'!D:D,4,'Base User Story List'!B:B)</f>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="40">
         <f>SUMIF('Base User Story List'!D:D,4,'Base User Story List'!B:B)</f>
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B3" s="40">
         <f>B2-SUMIF('Base User Story List'!C:C,"4-0",'Base User Story List'!B:B)</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" s="40">
         <f>C2-SUMIF('Base User Story List'!I:I,"4-0",'Base User Story List'!B:B)</f>
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="40">
         <f>B3-SUMIF('Base User Story List'!C:C,"4-1",'Base User Story List'!B:B)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="41">
         <f>C3-SUMIF('Base User Story List'!I:I,"4-1",'Base User Story List'!B:B)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="40">
         <f>B4-SUMIF('Base User Story List'!C:C,"4-2",'Base User Story List'!B:B)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="40"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="41">
         <f>B5-SUMIF('Base User Story List'!C:C,"4-3",'Base User Story List'!B:B)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C6" s="40"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="79" t="s">
         <v>147</v>
       </c>
       <c r="B7" s="80">
         <f>B6-SUMIF('Base User Story List'!C:C,"4-4",'Base User Story List'!B:B)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="81"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="82"/>
       <c r="B8" s="83"/>
       <c r="C8" s="84"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="42" t="s">
         <v>107</v>
       </c>
@@ -15397,22 +15424,22 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="5" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
         <v>138</v>
       </c>
@@ -15441,7 +15468,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="G2">
         <v>4.3</v>
       </c>
@@ -15450,7 +15477,7 @@
         <v>0.23255813953488372</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
         <v>149</v>
       </c>
@@ -15476,7 +15503,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="20" t="s">
         <v>150</v>
       </c>
@@ -15502,7 +15529,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="20" t="s">
         <v>139</v>
       </c>
@@ -15531,7 +15558,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="29">
       <c r="A6" s="20" t="s">
         <v>162</v>
       </c>
@@ -15562,7 +15589,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="20" t="s">
         <v>177</v>
       </c>
@@ -15580,22 +15607,22 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="20" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="20" t="s">
         <v>214</v>
       </c>
@@ -15612,9 +15639,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31920" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -2477,8 +2477,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2767,7 +2795,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="75">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -2791,6 +2819,20 @@
     <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -2815,6 +2857,20 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3046,11 +3102,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141861288"/>
-        <c:axId val="-2141866808"/>
+        <c:axId val="-2122632504"/>
+        <c:axId val="-2122627016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141861288"/>
+        <c:axId val="-2122632504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,12 +3134,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141866808"/>
+        <c:crossAx val="-2122627016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141866808"/>
+        <c:axId val="-2122627016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,7 +3173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141861288"/>
+        <c:crossAx val="-2122632504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3168,7 +3224,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3370,11 +3425,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141917560"/>
-        <c:axId val="-2141923080"/>
+        <c:axId val="-2122545352"/>
+        <c:axId val="-2122539864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141917560"/>
+        <c:axId val="-2122545352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3396,19 +3451,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141923080"/>
+        <c:crossAx val="-2122539864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141923080"/>
+        <c:axId val="-2122539864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,21 +3490,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141917560"/>
+        <c:crossAx val="-2122545352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3495,7 +3547,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3688,11 +3739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141981080"/>
-        <c:axId val="-2141986600"/>
+        <c:axId val="-2122478280"/>
+        <c:axId val="-2122472792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141981080"/>
+        <c:axId val="-2122478280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3714,19 +3765,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141986600"/>
+        <c:crossAx val="-2122472792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141986600"/>
+        <c:axId val="-2122472792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3754,21 +3804,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141981080"/>
+        <c:crossAx val="-2122478280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3798,7 +3846,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3928,11 +3975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2142040968"/>
-        <c:axId val="-2142044280"/>
+        <c:axId val="2078621848"/>
+        <c:axId val="2078625080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2142040968"/>
+        <c:axId val="2078621848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3975,7 +4022,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142044280"/>
+        <c:crossAx val="2078625080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3983,7 +4030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142044280"/>
+        <c:axId val="2078625080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4034,7 +4081,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142040968"/>
+        <c:crossAx val="2078621848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5192,8 +5239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -15424,7 +15471,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26820" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Base User Story List" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="BDC4" sheetId="6" r:id="rId4"/>
     <sheet name="Velocity" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="271">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -2305,6 +2305,36 @@
     <t>アプリのインターフェースデザインを改善する</t>
     <rPh sb="17" eb="19">
       <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>misc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>misc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー時にPOから挙がった要望を反映する（出来るだけ早く）</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2313,7 +2343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2566,7 +2596,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2650,8 +2680,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2878,16 +2916,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2919,9 +2951,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2929,9 +2958,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2972,8 +2998,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="91">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -3015,6 +3050,10 @@
     <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -3057,6 +3096,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3101,6 +3144,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3181,13 +3225,13 @@
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3266,13 +3310,13 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3288,11 +3332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365960880"/>
-        <c:axId val="365964016"/>
+        <c:axId val="2084065400"/>
+        <c:axId val="2094203352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="365960880"/>
+        <c:axId val="2084065400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,18 +3358,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365964016"/>
+        <c:crossAx val="2094203352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365964016"/>
+        <c:axId val="2094203352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,19 +3398,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365960880"/>
+        <c:crossAx val="2084065400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3410,6 +3457,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3487,22 +3535,22 @@
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,22 +3626,22 @@
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3609,11 +3657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365963624"/>
-        <c:axId val="365964408"/>
+        <c:axId val="2094491304"/>
+        <c:axId val="2092710488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="365963624"/>
+        <c:axId val="2094491304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,18 +3683,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365964408"/>
+        <c:crossAx val="2092710488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365964408"/>
+        <c:axId val="2092710488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,19 +3723,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365963624"/>
+        <c:crossAx val="2094491304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3731,6 +3782,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3808,22 +3860,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="@">
-                  <c:v>15</c:v>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="@">
-                  <c:v>0</c:v>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3899,13 +3951,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="@">
-                  <c:v>25</c:v>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="@">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,11 +3979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365965192"/>
-        <c:axId val="365965584"/>
+        <c:axId val="2094049992"/>
+        <c:axId val="2094656840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="365965192"/>
+        <c:axId val="2094049992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3947,18 +4005,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365965584"/>
+        <c:crossAx val="2094656840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365965584"/>
+        <c:axId val="2094656840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3986,19 +4045,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365965192"/>
+        <c:crossAx val="2094049992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4028,6 +4089,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4128,16 +4190,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.23255813953488372</c:v>
+                  <c:v>0.232558139534884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15277777777777776</c:v>
+                  <c:v>0.152777777777778</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.722222222222221E-2</c:v>
+                  <c:v>0.0972222222222222</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
@@ -4157,11 +4219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="365966368"/>
-        <c:axId val="366070608"/>
+        <c:axId val="2084239080"/>
+        <c:axId val="2084157144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365966368"/>
+        <c:axId val="2084239080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,7 +4266,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366070608"/>
+        <c:crossAx val="2084157144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4212,7 +4274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366070608"/>
+        <c:axId val="2084157144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4263,7 +4325,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365966368"/>
+        <c:crossAx val="2084239080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5421,23 +5483,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="26.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="44.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.125" style="7"/>
-    <col min="10" max="10" width="58.875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="6.125" style="3"/>
+    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="44.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="7"/>
+    <col min="10" max="10" width="58.83203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="6.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -6556,93 +6618,101 @@
       <c r="I38" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="J38" s="85" t="s">
+      <c r="J38" s="83" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="103" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A39" s="99">
+    <row r="39" spans="1:10" s="99" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A39" s="95">
         <v>21</v>
       </c>
-      <c r="B39" s="99">
+      <c r="B39" s="95">
         <v>2</v>
       </c>
-      <c r="C39" s="100" t="s">
+      <c r="C39" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="D39" s="99">
+      <c r="D39" s="95">
         <v>4</v>
       </c>
-      <c r="E39" s="101" t="s">
+      <c r="E39" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="102" t="s">
+      <c r="F39" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="102" t="s">
+      <c r="G39" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="101" t="s">
+      <c r="H39" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="J39" s="99" t="s">
+      <c r="J39" s="95" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="103" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A40" s="99">
+    <row r="40" spans="1:10" s="99" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A40" s="95">
         <v>29</v>
       </c>
-      <c r="B40" s="99">
+      <c r="B40" s="95">
         <v>5</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="99">
+      <c r="D40" s="95">
         <v>4</v>
       </c>
-      <c r="E40" s="101" t="s">
+      <c r="E40" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="102" t="s">
+      <c r="F40" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="G40" s="102" t="s">
+      <c r="G40" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="H40" s="101" t="s">
+      <c r="H40" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="J40" s="104" t="s">
+      <c r="J40" s="100" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="97" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A41" s="93"/>
-      <c r="B41" s="93"/>
+    <row r="41" spans="1:10" s="94" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A41" s="91"/>
+      <c r="B41" s="91">
+        <v>0</v>
+      </c>
       <c r="C41" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="D41" s="93"/>
+      <c r="D41" s="91">
+        <v>4</v>
+      </c>
       <c r="E41" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="95" t="s">
+      <c r="F41" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="G41" s="95" t="s">
+      <c r="G41" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="H41" s="94"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="98"/>
+      <c r="H41" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="I41" s="93"/>
+      <c r="J41" s="110" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="42" spans="1:10" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A42" s="50">
@@ -6754,7 +6824,9 @@
       <c r="G45" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="52"/>
+      <c r="H45" s="52" t="s">
+        <v>268</v>
+      </c>
       <c r="I45" s="54"/>
       <c r="J45" s="53"/>
     </row>
@@ -6776,33 +6848,35 @@
       <c r="G46" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="H46" s="52"/>
+      <c r="H46" s="52" t="s">
+        <v>269</v>
+      </c>
       <c r="I46" s="54"/>
       <c r="J46" s="53"/>
     </row>
-    <row r="47" spans="1:10" s="111" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A47" s="105"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106" t="s">
+    <row r="47" spans="1:10" s="107" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A47" s="101"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="D47" s="105">
+      <c r="D47" s="101">
         <v>4</v>
       </c>
-      <c r="E47" s="107" t="s">
+      <c r="E47" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="108" t="s">
+      <c r="F47" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="G47" s="108" t="s">
+      <c r="G47" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="H47" s="107" t="s">
+      <c r="H47" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="109"/>
-      <c r="J47" s="110"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="106"/>
     </row>
     <row r="48" spans="1:10" s="77" customFormat="1" ht="26.25" customHeight="1">
       <c r="A48" s="72"/>
@@ -15366,29 +15440,29 @@
       <c r="I63" s="60"/>
       <c r="J63" s="59"/>
     </row>
-    <row r="64" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="92" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A64" s="86"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="87" t="s">
+    <row r="64" spans="1:1022 1025:2046 2049:3070 3073:4094 4097:5118 5121:6142 6145:7166 7169:8190 8193:9214 9217:10238 10241:11262 11265:12286 12289:13310 13313:14334 14337:15358 15361:16382" s="90" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A64" s="84"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="D64" s="86">
+      <c r="D64" s="84">
         <v>4</v>
       </c>
-      <c r="E64" s="88" t="s">
+      <c r="E64" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="89" t="s">
+      <c r="F64" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="G64" s="89" t="s">
+      <c r="G64" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="H64" s="88" t="s">
+      <c r="H64" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="90"/>
-      <c r="J64" s="91" t="s">
+      <c r="I64" s="88"/>
+      <c r="J64" s="89" t="s">
         <v>249</v>
       </c>
     </row>
@@ -15415,9 +15489,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="8.875" style="9"/>
+    <col min="2" max="3" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15519,9 +15593,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="8.875" style="42"/>
+    <col min="2" max="3" width="8.83203125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15634,15 +15708,15 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="9"/>
-    <col min="2" max="2" width="8.875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="42"/>
-    <col min="4" max="16384" width="8.875" style="9"/>
+    <col min="1" max="1" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="8.83203125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="42"/>
+    <col min="4" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15688,7 +15762,7 @@
         <f>B3-SUMIF('Base User Story List'!C:C,"4-1",'Base User Story List'!B:B)</f>
         <v>23</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="40">
         <f>C3-SUMIF('Base User Story List'!I:I,"4-1",'Base User Story List'!B:B)</f>
         <v>25</v>
       </c>
@@ -15701,17 +15775,23 @@
         <f>B4-SUMIF('Base User Story List'!C:C,"4-2",'Base User Story List'!B:B)</f>
         <v>15</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="40">
+        <f>C4-SUMIF('Base User Story List'!I:I,"4-2",'Base User Story List'!B:B)</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <f>B5-SUMIF('Base User Story List'!C:C,"4-3",'Base User Story List'!B:B)</f>
         <v>15</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="41">
+        <f>C5-SUMIF('Base User Story List'!I:I,"4-3",'Base User Story List'!B:B)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="79" t="s">
@@ -15721,12 +15801,12 @@
         <f>B6-SUMIF('Base User Story List'!C:C,"4-4",'Base User Story List'!B:B)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="81"/>
+      <c r="C7" s="80"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="42" t="s">
@@ -15754,16 +15834,16 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="5" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -15885,7 +15965,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27">
+    <row r="6" spans="1:9" ht="29">
       <c r="A6" s="20" t="s">
         <v>162</v>
       </c>
@@ -15966,9 +16046,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Product Backlog and Burndown Chart.xlsx
+++ b/Product Backlog and Burndown Chart.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="272">
   <si>
     <t>User Story</t>
     <phoneticPr fontId="1"/>
@@ -2336,6 +2336,10 @@
     <rPh sb="27" eb="28">
       <t>ハヤ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3144,7 +3148,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3332,11 +3335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084065400"/>
-        <c:axId val="2094203352"/>
+        <c:axId val="2106378600"/>
+        <c:axId val="2108218392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084065400"/>
+        <c:axId val="2106378600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3358,19 +3361,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094203352"/>
+        <c:crossAx val="2108218392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094203352"/>
+        <c:axId val="2108218392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3398,21 +3400,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084065400"/>
+        <c:crossAx val="2106378600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3457,7 +3457,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3657,11 +3656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094491304"/>
-        <c:axId val="2092710488"/>
+        <c:axId val="2111053352"/>
+        <c:axId val="2111054328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094491304"/>
+        <c:axId val="2111053352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3683,19 +3682,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092710488"/>
+        <c:crossAx val="2111054328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2092710488"/>
+        <c:axId val="2111054328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,21 +3721,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094491304"/>
+        <c:crossAx val="2111053352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3782,7 +3778,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3875,7 +3870,7 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3979,11 +3974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094049992"/>
-        <c:axId val="2094656840"/>
+        <c:axId val="2104850328"/>
+        <c:axId val="2111118200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094049992"/>
+        <c:axId val="2104850328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4005,19 +4000,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094656840"/>
+        <c:crossAx val="2111118200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094656840"/>
+        <c:axId val="2111118200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4045,21 +4039,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094049992"/>
+        <c:crossAx val="2104850328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4089,7 +4081,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4219,11 +4210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2084239080"/>
-        <c:axId val="2084157144"/>
+        <c:axId val="2111133208"/>
+        <c:axId val="2112110360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2084239080"/>
+        <c:axId val="2111133208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +4257,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084157144"/>
+        <c:crossAx val="2112110360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4274,7 +4265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084157144"/>
+        <c:axId val="2112110360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4325,7 +4316,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084239080"/>
+        <c:crossAx val="2111133208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5483,8 +5474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="6.1640625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -6782,7 +6773,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D44" s="50">
         <v>4</v>
@@ -6810,7 +6801,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D45" s="50">
         <v>4</v>
@@ -6834,7 +6825,7 @@
       <c r="A46" s="50"/>
       <c r="B46" s="50"/>
       <c r="C46" s="51" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D46" s="50">
         <v>4</v>
@@ -6857,12 +6848,8 @@
     <row r="47" spans="1:10" s="107" customFormat="1" ht="26.25" customHeight="1">
       <c r="A47" s="101"/>
       <c r="B47" s="101"/>
-      <c r="C47" s="102" t="s">
-        <v>257</v>
-      </c>
-      <c r="D47" s="101">
-        <v>4</v>
-      </c>
+      <c r="C47" s="102"/>
+      <c r="D47" s="101"/>
       <c r="E47" s="103" t="s">
         <v>28</v>
       </c>
@@ -15799,7 +15786,7 @@
       </c>
       <c r="B7" s="80">
         <f>B6-SUMIF('Base User Story List'!C:C,"4-4",'Base User Story List'!B:B)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" s="80"/>
     </row>
